--- a/csdata/Fe/SI/Fe15+.xlsx
+++ b/csdata/Fe/SI/Fe15+.xlsx
@@ -1,17 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gmondeel/Documents/CfA/Chandra/CHANDRA-Rates/csdata/Fe/SI/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473A26EB-80D4-E44F-9F2C-485C637D9F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Energy (eV)</t>
   </si>
@@ -30,33 +52,48 @@
   <si>
     <t>Electron-impact ionization of iron ions: Fe11+, Fe13+, and Fe15+ Gregory 1987</t>
   </si>
+  <si>
+    <t>Unc at peak</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -65,69 +102,60 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -317,20 +345,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z524"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -346,24 +379,30 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="F1" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
-        <v>634.2</v>
+        <v>634.20000000000005</v>
       </c>
       <c r="B2" s="4">
-        <v>0.071</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="C2" s="4">
-        <v>0.048</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="D2" s="5">
-        <v>-18.0</v>
+        <v>-18</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2">
+        <f>_xlfn.XLOOKUP(MAX(B:B),B:B,C:C)/MAX(B:B)</f>
+        <v>0.11830985915492959</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -385,15 +424,15 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>686.1</v>
       </c>
       <c r="B3" s="4">
-        <v>0.076</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="C3" s="4">
-        <v>0.042</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="2"/>
@@ -419,15 +458,15 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>727.3</v>
       </c>
       <c r="B4" s="4">
-        <v>0.058</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="C4" s="4">
-        <v>0.043</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="2"/>
@@ -453,7 +492,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>741.5</v>
       </c>
@@ -461,7 +500,7 @@
         <v>0.155</v>
       </c>
       <c r="C5" s="4">
-        <v>0.046</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="2"/>
@@ -487,7 +526,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>751.1</v>
       </c>
@@ -495,7 +534,7 @@
         <v>0.105</v>
       </c>
       <c r="C6" s="4">
-        <v>0.026</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="2"/>
@@ -521,15 +560,15 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
-        <v>757.0</v>
+        <v>757</v>
       </c>
       <c r="B7" s="4">
         <v>0.151</v>
       </c>
       <c r="C7" s="4">
-        <v>0.026</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="2"/>
@@ -555,15 +594,15 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>760.4</v>
       </c>
       <c r="B8" s="4">
-        <v>0.172</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="C8" s="4">
-        <v>0.032</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="2"/>
@@ -589,7 +628,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>769.1</v>
       </c>
@@ -597,7 +636,7 @@
         <v>0.19</v>
       </c>
       <c r="C9" s="4">
-        <v>0.056</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="2"/>
@@ -623,15 +662,15 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>778.1</v>
       </c>
       <c r="B10" s="4">
-        <v>0.175</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="C10" s="4">
-        <v>0.043</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="2"/>
@@ -657,15 +696,15 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>785.7</v>
       </c>
       <c r="B11" s="4">
-        <v>0.242</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="C11" s="4">
-        <v>0.046</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -691,15 +730,15 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>796.6</v>
       </c>
       <c r="B12" s="4">
-        <v>0.198</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="C12" s="4">
-        <v>0.051</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -725,7 +764,7 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>800.9</v>
       </c>
@@ -733,7 +772,7 @@
         <v>0.317</v>
       </c>
       <c r="C13" s="4">
-        <v>0.042</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -759,15 +798,15 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>804.8</v>
       </c>
       <c r="B14" s="4">
-        <v>0.305</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="C14" s="4">
-        <v>0.042</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -793,7 +832,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>805.7</v>
       </c>
@@ -801,7 +840,7 @@
         <v>0.25</v>
       </c>
       <c r="C15" s="4">
-        <v>0.027</v>
+        <v>2.7E-2</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -827,7 +866,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>806.2</v>
       </c>
@@ -861,7 +900,7 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>806.7</v>
       </c>
@@ -869,7 +908,7 @@
         <v>0.21</v>
       </c>
       <c r="C17" s="4">
-        <v>0.025</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -895,15 +934,15 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>807.3</v>
       </c>
       <c r="B18" s="4">
-        <v>0.355</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="C18" s="4">
-        <v>0.042</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -929,15 +968,15 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
-        <v>816.0</v>
+        <v>816</v>
       </c>
       <c r="B19" s="4">
         <v>0.253</v>
       </c>
       <c r="C19" s="4">
-        <v>0.028</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -963,15 +1002,15 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>820.8</v>
       </c>
       <c r="B20" s="4">
-        <v>0.298</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="C20" s="4">
-        <v>0.065</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -997,15 +1036,15 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>835.2</v>
       </c>
       <c r="B21" s="4">
-        <v>0.257</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="C21" s="4">
-        <v>0.027</v>
+        <v>2.7E-2</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -1031,15 +1070,15 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>850.2</v>
       </c>
       <c r="B22" s="4">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="C22" s="4">
-        <v>0.033</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -1065,15 +1104,15 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>855.6</v>
       </c>
       <c r="B23" s="4">
-        <v>0.278</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="C23" s="4">
-        <v>0.047</v>
+        <v>4.7E-2</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -1099,15 +1138,15 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>870.4</v>
       </c>
       <c r="B24" s="4">
-        <v>0.287</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="C24" s="4">
-        <v>0.029</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -1133,15 +1172,15 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
-        <v>872.0</v>
+        <v>872</v>
       </c>
       <c r="B25" s="4">
-        <v>0.349</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="C25" s="4">
-        <v>0.045</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -1167,15 +1206,15 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>904.5</v>
       </c>
       <c r="B26" s="4">
-        <v>0.271</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="C26" s="4">
-        <v>0.027</v>
+        <v>2.7E-2</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -1201,15 +1240,15 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>924.6</v>
       </c>
       <c r="B27" s="4">
-        <v>0.302</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="C27" s="4">
-        <v>0.034</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="7"/>
@@ -1235,15 +1274,15 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>956.9</v>
       </c>
       <c r="B28" s="4">
-        <v>0.339</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="C28" s="4">
-        <v>0.034</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="2"/>
@@ -1269,15 +1308,15 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
-        <v>988.0</v>
+        <v>988</v>
       </c>
       <c r="B29" s="4">
-        <v>0.321</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="C29" s="4">
-        <v>0.047</v>
+        <v>4.7E-2</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="2"/>
@@ -1303,11 +1342,11 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="6"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -1329,11 +1368,11 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="6"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -1355,11 +1394,11 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="6"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -1381,11 +1420,11 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="6"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -1407,11 +1446,11 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="6"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -1433,11 +1472,11 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35">
-      <c r="A35" s="9"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="6"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -1459,11 +1498,11 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36">
-      <c r="A36" s="9"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="6"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -1485,11 +1524,11 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37">
-      <c r="A37" s="9"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="6"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -1511,11 +1550,11 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38">
-      <c r="A38" s="9"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="6"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -1537,11 +1576,11 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39">
-      <c r="A39" s="9"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="6"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -1563,11 +1602,11 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40">
-      <c r="A40" s="9"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="6"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -1589,11 +1628,11 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41">
-      <c r="A41" s="9"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="6"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -1615,11 +1654,11 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42">
-      <c r="A42" s="9"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="6"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -1641,11 +1680,11 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43">
-      <c r="A43" s="9"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="6"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -1667,11 +1706,11 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44">
-      <c r="A44" s="9"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="6"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -1693,11 +1732,11 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45">
-      <c r="A45" s="9"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="6"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -1719,11 +1758,11 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46">
-      <c r="A46" s="9"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="6"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -1745,11 +1784,11 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47">
-      <c r="A47" s="9"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="6"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -1771,11 +1810,11 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48">
-      <c r="A48" s="9"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
+    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="6"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -1797,11 +1836,11 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49">
-      <c r="A49" s="9"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
+    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="6"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -1823,11 +1862,11 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50">
-      <c r="A50" s="9"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
+    <row r="50" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A50" s="6"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
@@ -1849,11 +1888,11 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51">
-      <c r="A51" s="9"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
+    <row r="51" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A51" s="6"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
@@ -1875,11 +1914,11 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52">
-      <c r="A52" s="9"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
+    <row r="52" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A52" s="6"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
@@ -1901,11 +1940,11 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53">
-      <c r="A53" s="9"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
+    <row r="53" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A53" s="6"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
@@ -1927,11 +1966,11 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54">
-      <c r="A54" s="9"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
+    <row r="54" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A54" s="6"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -1953,11 +1992,11 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55">
-      <c r="A55" s="9"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
+    <row r="55" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A55" s="6"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -1979,11 +2018,11 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56">
-      <c r="A56" s="9"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
+    <row r="56" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A56" s="6"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -2005,11 +2044,11 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57">
-      <c r="A57" s="9"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
+    <row r="57" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A57" s="6"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -2031,11 +2070,11 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58">
-      <c r="A58" s="9"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
+    <row r="58" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A58" s="6"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
@@ -2057,11 +2096,11 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59">
-      <c r="A59" s="9"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
+    <row r="59" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A59" s="6"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
@@ -2083,11 +2122,11 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60">
-      <c r="A60" s="9"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
+    <row r="60" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A60" s="6"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
@@ -2109,11 +2148,11 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61">
-      <c r="A61" s="9"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
+    <row r="61" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A61" s="6"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
@@ -2135,11 +2174,11 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62">
-      <c r="A62" s="9"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
+    <row r="62" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A62" s="6"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
@@ -2161,11 +2200,11 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63">
-      <c r="A63" s="9"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
+    <row r="63" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A63" s="6"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
@@ -2187,11 +2226,11 @@
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
     </row>
-    <row r="64">
-      <c r="A64" s="9"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
+    <row r="64" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A64" s="6"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
@@ -2213,11 +2252,11 @@
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
     </row>
-    <row r="65">
-      <c r="A65" s="9"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
+    <row r="65" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A65" s="6"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
@@ -2239,11 +2278,11 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
     </row>
-    <row r="66">
-      <c r="A66" s="9"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
+    <row r="66" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A66" s="6"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
@@ -2265,11 +2304,11 @@
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
     </row>
-    <row r="67">
-      <c r="A67" s="9"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
+    <row r="67" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A67" s="6"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
@@ -2291,11 +2330,11 @@
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
     </row>
-    <row r="68">
-      <c r="A68" s="9"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
+    <row r="68" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A68" s="6"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
@@ -2317,11 +2356,11 @@
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
     </row>
-    <row r="69">
-      <c r="A69" s="9"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
+    <row r="69" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A69" s="6"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
@@ -2343,11 +2382,11 @@
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
     </row>
-    <row r="70">
-      <c r="A70" s="9"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
+    <row r="70" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A70" s="6"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
@@ -2369,11 +2408,11 @@
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
     </row>
-    <row r="71">
-      <c r="A71" s="9"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
+    <row r="71" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A71" s="6"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
@@ -2395,11 +2434,11 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72">
-      <c r="A72" s="9"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
+    <row r="72" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A72" s="6"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
@@ -2421,11 +2460,11 @@
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
     </row>
-    <row r="73">
-      <c r="A73" s="9"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
+    <row r="73" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A73" s="6"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
@@ -2447,11 +2486,11 @@
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
     </row>
-    <row r="74">
-      <c r="A74" s="9"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
+    <row r="74" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A74" s="6"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
@@ -2473,11 +2512,11 @@
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
     </row>
-    <row r="75">
-      <c r="A75" s="9"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
+    <row r="75" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A75" s="6"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
@@ -2499,11 +2538,11 @@
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
     </row>
-    <row r="76">
-      <c r="A76" s="9"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
+    <row r="76" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A76" s="6"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
@@ -2525,11 +2564,11 @@
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
     </row>
-    <row r="77">
-      <c r="A77" s="9"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
+    <row r="77" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A77" s="6"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
@@ -2551,11 +2590,11 @@
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
     </row>
-    <row r="78">
-      <c r="A78" s="9"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
+    <row r="78" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A78" s="6"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
@@ -2577,11 +2616,11 @@
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
     </row>
-    <row r="79">
-      <c r="A79" s="9"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
+    <row r="79" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A79" s="6"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
@@ -2603,11 +2642,11 @@
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
     </row>
-    <row r="80">
-      <c r="A80" s="9"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
+    <row r="80" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A80" s="6"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
@@ -2629,11 +2668,11 @@
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
     </row>
-    <row r="81">
-      <c r="A81" s="9"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
+    <row r="81" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A81" s="6"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
@@ -2655,11 +2694,11 @@
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
     </row>
-    <row r="82">
-      <c r="A82" s="9"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
+    <row r="82" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A82" s="6"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
@@ -2681,11 +2720,11 @@
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
     </row>
-    <row r="83">
-      <c r="A83" s="9"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
+    <row r="83" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A83" s="6"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
@@ -2707,11 +2746,11 @@
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
     </row>
-    <row r="84">
-      <c r="A84" s="9"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
+    <row r="84" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A84" s="6"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
@@ -2733,11 +2772,11 @@
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
     </row>
-    <row r="85">
-      <c r="A85" s="9"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
+    <row r="85" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A85" s="6"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
@@ -2759,11 +2798,11 @@
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
     </row>
-    <row r="86">
-      <c r="A86" s="9"/>
-      <c r="B86" s="10"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
+    <row r="86" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A86" s="6"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
@@ -2785,11 +2824,11 @@
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
     </row>
-    <row r="87">
-      <c r="A87" s="9"/>
-      <c r="B87" s="10"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
+    <row r="87" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A87" s="6"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
@@ -2811,11 +2850,11 @@
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
     </row>
-    <row r="88">
-      <c r="A88" s="9"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
+    <row r="88" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A88" s="6"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
@@ -2837,11 +2876,11 @@
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
     </row>
-    <row r="89">
-      <c r="A89" s="9"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
+    <row r="89" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A89" s="6"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
@@ -2863,11 +2902,11 @@
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
     </row>
-    <row r="90">
-      <c r="A90" s="9"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
+    <row r="90" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A90" s="6"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
@@ -2889,11 +2928,11 @@
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
     </row>
-    <row r="91">
-      <c r="A91" s="9"/>
-      <c r="B91" s="10"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
+    <row r="91" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A91" s="6"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
@@ -2915,11 +2954,11 @@
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
     </row>
-    <row r="92">
-      <c r="A92" s="9"/>
-      <c r="B92" s="10"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
+    <row r="92" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A92" s="6"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
@@ -2941,11 +2980,11 @@
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
     </row>
-    <row r="93">
-      <c r="A93" s="9"/>
-      <c r="B93" s="10"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
+    <row r="93" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A93" s="6"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
@@ -2967,11 +3006,11 @@
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
     </row>
-    <row r="94">
-      <c r="A94" s="9"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
+    <row r="94" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A94" s="6"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
@@ -2993,11 +3032,11 @@
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
     </row>
-    <row r="95">
-      <c r="A95" s="9"/>
-      <c r="B95" s="10"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
+    <row r="95" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A95" s="6"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
@@ -3019,11 +3058,11 @@
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
     </row>
-    <row r="96">
-      <c r="A96" s="9"/>
-      <c r="B96" s="10"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
+    <row r="96" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A96" s="6"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
@@ -3045,11 +3084,11 @@
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
     </row>
-    <row r="97">
-      <c r="A97" s="9"/>
-      <c r="B97" s="10"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
+    <row r="97" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A97" s="6"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
@@ -3071,11 +3110,11 @@
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
     </row>
-    <row r="98">
-      <c r="A98" s="9"/>
-      <c r="B98" s="10"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
+    <row r="98" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A98" s="6"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
@@ -3097,11 +3136,11 @@
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
     </row>
-    <row r="99">
-      <c r="A99" s="9"/>
-      <c r="B99" s="10"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
+    <row r="99" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A99" s="6"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
@@ -3123,11 +3162,11 @@
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
     </row>
-    <row r="100">
-      <c r="A100" s="9"/>
-      <c r="B100" s="10"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
+    <row r="100" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A100" s="6"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
@@ -3149,11 +3188,11 @@
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
     </row>
-    <row r="101">
-      <c r="A101" s="9"/>
-      <c r="B101" s="10"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
+    <row r="101" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A101" s="6"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
@@ -3175,11 +3214,11 @@
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
     </row>
-    <row r="102">
-      <c r="A102" s="9"/>
-      <c r="B102" s="10"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
+    <row r="102" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A102" s="6"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
@@ -3201,11 +3240,11 @@
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
     </row>
-    <row r="103">
-      <c r="A103" s="9"/>
-      <c r="B103" s="10"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
+    <row r="103" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A103" s="6"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
@@ -3227,11 +3266,11 @@
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
     </row>
-    <row r="104">
-      <c r="A104" s="9"/>
-      <c r="B104" s="10"/>
-      <c r="C104" s="11"/>
-      <c r="D104" s="11"/>
+    <row r="104" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A104" s="6"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
@@ -3253,11 +3292,11 @@
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
     </row>
-    <row r="105">
-      <c r="A105" s="9"/>
-      <c r="B105" s="10"/>
-      <c r="C105" s="11"/>
-      <c r="D105" s="11"/>
+    <row r="105" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A105" s="6"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
@@ -3279,11 +3318,11 @@
       <c r="Y105" s="2"/>
       <c r="Z105" s="2"/>
     </row>
-    <row r="106">
-      <c r="A106" s="9"/>
-      <c r="B106" s="10"/>
-      <c r="C106" s="11"/>
-      <c r="D106" s="11"/>
+    <row r="106" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A106" s="6"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
@@ -3305,11 +3344,11 @@
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
     </row>
-    <row r="107">
-      <c r="A107" s="9"/>
-      <c r="B107" s="10"/>
-      <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
+    <row r="107" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A107" s="6"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
@@ -3331,11 +3370,11 @@
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
     </row>
-    <row r="108">
-      <c r="A108" s="9"/>
-      <c r="B108" s="10"/>
-      <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
+    <row r="108" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A108" s="6"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
@@ -3357,11 +3396,11 @@
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
     </row>
-    <row r="109">
-      <c r="A109" s="9"/>
-      <c r="B109" s="10"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
+    <row r="109" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A109" s="6"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
@@ -3383,11 +3422,11 @@
       <c r="Y109" s="2"/>
       <c r="Z109" s="2"/>
     </row>
-    <row r="110">
-      <c r="A110" s="9"/>
-      <c r="B110" s="10"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="11"/>
+    <row r="110" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A110" s="6"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
@@ -3409,11 +3448,11 @@
       <c r="Y110" s="2"/>
       <c r="Z110" s="2"/>
     </row>
-    <row r="111">
-      <c r="A111" s="9"/>
-      <c r="B111" s="10"/>
-      <c r="C111" s="11"/>
-      <c r="D111" s="11"/>
+    <row r="111" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A111" s="6"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
@@ -3435,11 +3474,11 @@
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
     </row>
-    <row r="112">
-      <c r="A112" s="9"/>
-      <c r="B112" s="10"/>
-      <c r="C112" s="11"/>
-      <c r="D112" s="11"/>
+    <row r="112" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A112" s="6"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
@@ -3461,11 +3500,11 @@
       <c r="Y112" s="2"/>
       <c r="Z112" s="2"/>
     </row>
-    <row r="113">
-      <c r="A113" s="9"/>
-      <c r="B113" s="10"/>
-      <c r="C113" s="11"/>
-      <c r="D113" s="11"/>
+    <row r="113" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A113" s="6"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
@@ -3487,11 +3526,11 @@
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
     </row>
-    <row r="114">
-      <c r="A114" s="9"/>
-      <c r="B114" s="10"/>
-      <c r="C114" s="11"/>
-      <c r="D114" s="11"/>
+    <row r="114" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A114" s="6"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
@@ -3513,11 +3552,11 @@
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
     </row>
-    <row r="115">
-      <c r="A115" s="9"/>
-      <c r="B115" s="10"/>
-      <c r="C115" s="11"/>
-      <c r="D115" s="11"/>
+    <row r="115" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A115" s="6"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
@@ -3539,11 +3578,11 @@
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
     </row>
-    <row r="116">
-      <c r="A116" s="9"/>
-      <c r="B116" s="10"/>
-      <c r="C116" s="11"/>
-      <c r="D116" s="11"/>
+    <row r="116" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A116" s="6"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
@@ -3565,11 +3604,11 @@
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
     </row>
-    <row r="117">
-      <c r="A117" s="9"/>
-      <c r="B117" s="10"/>
-      <c r="C117" s="11"/>
-      <c r="D117" s="11"/>
+    <row r="117" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A117" s="6"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
@@ -3591,11 +3630,11 @@
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
     </row>
-    <row r="118">
-      <c r="A118" s="9"/>
-      <c r="B118" s="10"/>
-      <c r="C118" s="11"/>
-      <c r="D118" s="11"/>
+    <row r="118" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A118" s="6"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
@@ -3617,11 +3656,11 @@
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
     </row>
-    <row r="119">
-      <c r="A119" s="9"/>
-      <c r="B119" s="10"/>
-      <c r="C119" s="11"/>
-      <c r="D119" s="11"/>
+    <row r="119" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A119" s="6"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
@@ -3643,11 +3682,11 @@
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
     </row>
-    <row r="120">
-      <c r="A120" s="9"/>
-      <c r="B120" s="10"/>
-      <c r="C120" s="11"/>
-      <c r="D120" s="11"/>
+    <row r="120" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A120" s="6"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
@@ -3669,11 +3708,11 @@
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
     </row>
-    <row r="121">
-      <c r="A121" s="9"/>
-      <c r="B121" s="10"/>
-      <c r="C121" s="11"/>
-      <c r="D121" s="11"/>
+    <row r="121" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A121" s="6"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
@@ -3695,11 +3734,11 @@
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
     </row>
-    <row r="122">
-      <c r="A122" s="9"/>
-      <c r="B122" s="10"/>
-      <c r="C122" s="11"/>
-      <c r="D122" s="11"/>
+    <row r="122" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A122" s="6"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
@@ -3721,11 +3760,11 @@
       <c r="Y122" s="2"/>
       <c r="Z122" s="2"/>
     </row>
-    <row r="123">
-      <c r="A123" s="9"/>
-      <c r="B123" s="10"/>
-      <c r="C123" s="11"/>
-      <c r="D123" s="11"/>
+    <row r="123" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A123" s="6"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
@@ -3747,11 +3786,11 @@
       <c r="Y123" s="2"/>
       <c r="Z123" s="2"/>
     </row>
-    <row r="124">
-      <c r="A124" s="9"/>
-      <c r="B124" s="10"/>
-      <c r="C124" s="11"/>
-      <c r="D124" s="11"/>
+    <row r="124" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A124" s="6"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
@@ -3773,11 +3812,11 @@
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
     </row>
-    <row r="125">
-      <c r="A125" s="9"/>
-      <c r="B125" s="10"/>
-      <c r="C125" s="11"/>
-      <c r="D125" s="11"/>
+    <row r="125" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A125" s="6"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
@@ -3799,11 +3838,11 @@
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
     </row>
-    <row r="126">
-      <c r="A126" s="9"/>
-      <c r="B126" s="10"/>
-      <c r="C126" s="11"/>
-      <c r="D126" s="11"/>
+    <row r="126" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A126" s="6"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
@@ -3825,11 +3864,11 @@
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
     </row>
-    <row r="127">
-      <c r="A127" s="9"/>
-      <c r="B127" s="10"/>
-      <c r="C127" s="11"/>
-      <c r="D127" s="11"/>
+    <row r="127" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A127" s="6"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
@@ -3851,11 +3890,11 @@
       <c r="Y127" s="2"/>
       <c r="Z127" s="2"/>
     </row>
-    <row r="128">
-      <c r="A128" s="9"/>
-      <c r="B128" s="10"/>
-      <c r="C128" s="11"/>
-      <c r="D128" s="11"/>
+    <row r="128" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A128" s="6"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
@@ -3877,11 +3916,11 @@
       <c r="Y128" s="2"/>
       <c r="Z128" s="2"/>
     </row>
-    <row r="129">
-      <c r="A129" s="9"/>
-      <c r="B129" s="10"/>
-      <c r="C129" s="11"/>
-      <c r="D129" s="11"/>
+    <row r="129" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A129" s="6"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="7"/>
+      <c r="D129" s="7"/>
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
@@ -3903,11 +3942,11 @@
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
     </row>
-    <row r="130">
-      <c r="A130" s="9"/>
-      <c r="B130" s="10"/>
-      <c r="C130" s="11"/>
-      <c r="D130" s="11"/>
+    <row r="130" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A130" s="6"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="7"/>
+      <c r="D130" s="7"/>
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
@@ -3929,11 +3968,11 @@
       <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
     </row>
-    <row r="131">
-      <c r="A131" s="9"/>
-      <c r="B131" s="10"/>
-      <c r="C131" s="11"/>
-      <c r="D131" s="11"/>
+    <row r="131" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A131" s="6"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
@@ -3955,11 +3994,11 @@
       <c r="Y131" s="2"/>
       <c r="Z131" s="2"/>
     </row>
-    <row r="132">
-      <c r="A132" s="9"/>
-      <c r="B132" s="10"/>
-      <c r="C132" s="11"/>
-      <c r="D132" s="11"/>
+    <row r="132" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A132" s="6"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
@@ -3981,11 +4020,11 @@
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
     </row>
-    <row r="133">
-      <c r="A133" s="9"/>
-      <c r="B133" s="10"/>
-      <c r="C133" s="11"/>
-      <c r="D133" s="11"/>
+    <row r="133" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A133" s="6"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
@@ -4007,11 +4046,11 @@
       <c r="Y133" s="2"/>
       <c r="Z133" s="2"/>
     </row>
-    <row r="134">
-      <c r="A134" s="9"/>
-      <c r="B134" s="10"/>
-      <c r="C134" s="11"/>
-      <c r="D134" s="11"/>
+    <row r="134" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A134" s="6"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
@@ -4033,11 +4072,11 @@
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
     </row>
-    <row r="135">
-      <c r="A135" s="9"/>
-      <c r="B135" s="10"/>
-      <c r="C135" s="11"/>
-      <c r="D135" s="11"/>
+    <row r="135" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A135" s="6"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
@@ -4059,11 +4098,11 @@
       <c r="Y135" s="2"/>
       <c r="Z135" s="2"/>
     </row>
-    <row r="136">
-      <c r="A136" s="9"/>
-      <c r="B136" s="10"/>
-      <c r="C136" s="11"/>
-      <c r="D136" s="11"/>
+    <row r="136" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A136" s="6"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
@@ -4085,11 +4124,11 @@
       <c r="Y136" s="2"/>
       <c r="Z136" s="2"/>
     </row>
-    <row r="137">
-      <c r="A137" s="9"/>
-      <c r="B137" s="10"/>
-      <c r="C137" s="11"/>
-      <c r="D137" s="11"/>
+    <row r="137" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A137" s="6"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
@@ -4111,11 +4150,11 @@
       <c r="Y137" s="2"/>
       <c r="Z137" s="2"/>
     </row>
-    <row r="138">
-      <c r="A138" s="9"/>
-      <c r="B138" s="10"/>
-      <c r="C138" s="11"/>
-      <c r="D138" s="11"/>
+    <row r="138" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A138" s="6"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
@@ -4137,11 +4176,11 @@
       <c r="Y138" s="2"/>
       <c r="Z138" s="2"/>
     </row>
-    <row r="139">
-      <c r="A139" s="9"/>
-      <c r="B139" s="10"/>
-      <c r="C139" s="11"/>
-      <c r="D139" s="11"/>
+    <row r="139" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A139" s="6"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
@@ -4163,11 +4202,11 @@
       <c r="Y139" s="2"/>
       <c r="Z139" s="2"/>
     </row>
-    <row r="140">
-      <c r="A140" s="9"/>
-      <c r="B140" s="10"/>
-      <c r="C140" s="11"/>
-      <c r="D140" s="11"/>
+    <row r="140" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A140" s="6"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="7"/>
+      <c r="D140" s="7"/>
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
@@ -4189,11 +4228,11 @@
       <c r="Y140" s="2"/>
       <c r="Z140" s="2"/>
     </row>
-    <row r="141">
-      <c r="A141" s="9"/>
-      <c r="B141" s="10"/>
-      <c r="C141" s="11"/>
-      <c r="D141" s="11"/>
+    <row r="141" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A141" s="6"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="7"/>
+      <c r="D141" s="7"/>
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
@@ -4215,11 +4254,11 @@
       <c r="Y141" s="2"/>
       <c r="Z141" s="2"/>
     </row>
-    <row r="142">
-      <c r="A142" s="9"/>
-      <c r="B142" s="10"/>
-      <c r="C142" s="11"/>
-      <c r="D142" s="11"/>
+    <row r="142" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A142" s="6"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="7"/>
+      <c r="D142" s="7"/>
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
@@ -4241,11 +4280,11 @@
       <c r="Y142" s="2"/>
       <c r="Z142" s="2"/>
     </row>
-    <row r="143">
-      <c r="A143" s="9"/>
-      <c r="B143" s="10"/>
-      <c r="C143" s="11"/>
-      <c r="D143" s="11"/>
+    <row r="143" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A143" s="6"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
@@ -4267,11 +4306,11 @@
       <c r="Y143" s="2"/>
       <c r="Z143" s="2"/>
     </row>
-    <row r="144">
-      <c r="A144" s="9"/>
-      <c r="B144" s="10"/>
-      <c r="C144" s="11"/>
-      <c r="D144" s="11"/>
+    <row r="144" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A144" s="6"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="7"/>
+      <c r="D144" s="7"/>
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
@@ -4293,11 +4332,11 @@
       <c r="Y144" s="2"/>
       <c r="Z144" s="2"/>
     </row>
-    <row r="145">
-      <c r="A145" s="9"/>
-      <c r="B145" s="10"/>
-      <c r="C145" s="11"/>
-      <c r="D145" s="11"/>
+    <row r="145" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A145" s="6"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="7"/>
+      <c r="D145" s="7"/>
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
@@ -4319,11 +4358,11 @@
       <c r="Y145" s="2"/>
       <c r="Z145" s="2"/>
     </row>
-    <row r="146">
-      <c r="A146" s="9"/>
-      <c r="B146" s="10"/>
-      <c r="C146" s="11"/>
-      <c r="D146" s="11"/>
+    <row r="146" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A146" s="6"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="7"/>
+      <c r="D146" s="7"/>
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
@@ -4345,11 +4384,11 @@
       <c r="Y146" s="2"/>
       <c r="Z146" s="2"/>
     </row>
-    <row r="147">
-      <c r="A147" s="9"/>
-      <c r="B147" s="10"/>
-      <c r="C147" s="11"/>
-      <c r="D147" s="11"/>
+    <row r="147" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A147" s="6"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="7"/>
+      <c r="D147" s="7"/>
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
@@ -4371,11 +4410,11 @@
       <c r="Y147" s="2"/>
       <c r="Z147" s="2"/>
     </row>
-    <row r="148">
-      <c r="A148" s="9"/>
-      <c r="B148" s="10"/>
-      <c r="C148" s="11"/>
-      <c r="D148" s="11"/>
+    <row r="148" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A148" s="6"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="7"/>
+      <c r="D148" s="7"/>
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
@@ -4397,11 +4436,11 @@
       <c r="Y148" s="2"/>
       <c r="Z148" s="2"/>
     </row>
-    <row r="149">
-      <c r="A149" s="9"/>
-      <c r="B149" s="10"/>
-      <c r="C149" s="11"/>
-      <c r="D149" s="11"/>
+    <row r="149" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A149" s="6"/>
+      <c r="B149" s="5"/>
+      <c r="C149" s="7"/>
+      <c r="D149" s="7"/>
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
@@ -4423,11 +4462,11 @@
       <c r="Y149" s="2"/>
       <c r="Z149" s="2"/>
     </row>
-    <row r="150">
-      <c r="A150" s="9"/>
-      <c r="B150" s="10"/>
-      <c r="C150" s="11"/>
-      <c r="D150" s="11"/>
+    <row r="150" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A150" s="6"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="7"/>
+      <c r="D150" s="7"/>
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
@@ -4449,11 +4488,11 @@
       <c r="Y150" s="2"/>
       <c r="Z150" s="2"/>
     </row>
-    <row r="151">
-      <c r="A151" s="9"/>
-      <c r="B151" s="10"/>
-      <c r="C151" s="11"/>
-      <c r="D151" s="11"/>
+    <row r="151" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A151" s="6"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="7"/>
+      <c r="D151" s="7"/>
       <c r="G151" s="2"/>
       <c r="H151" s="2"/>
       <c r="I151" s="2"/>
@@ -4475,11 +4514,11 @@
       <c r="Y151" s="2"/>
       <c r="Z151" s="2"/>
     </row>
-    <row r="152">
-      <c r="A152" s="9"/>
-      <c r="B152" s="10"/>
-      <c r="C152" s="11"/>
-      <c r="D152" s="11"/>
+    <row r="152" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A152" s="6"/>
+      <c r="B152" s="5"/>
+      <c r="C152" s="7"/>
+      <c r="D152" s="7"/>
       <c r="G152" s="2"/>
       <c r="H152" s="2"/>
       <c r="I152" s="2"/>
@@ -4501,11 +4540,11 @@
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
     </row>
-    <row r="153">
-      <c r="A153" s="9"/>
-      <c r="B153" s="10"/>
-      <c r="C153" s="11"/>
-      <c r="D153" s="11"/>
+    <row r="153" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A153" s="6"/>
+      <c r="B153" s="5"/>
+      <c r="C153" s="7"/>
+      <c r="D153" s="7"/>
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
@@ -4527,11 +4566,11 @@
       <c r="Y153" s="2"/>
       <c r="Z153" s="2"/>
     </row>
-    <row r="154">
-      <c r="A154" s="9"/>
-      <c r="B154" s="10"/>
-      <c r="C154" s="11"/>
-      <c r="D154" s="11"/>
+    <row r="154" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A154" s="6"/>
+      <c r="B154" s="5"/>
+      <c r="C154" s="7"/>
+      <c r="D154" s="7"/>
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
@@ -4553,11 +4592,11 @@
       <c r="Y154" s="2"/>
       <c r="Z154" s="2"/>
     </row>
-    <row r="155">
-      <c r="A155" s="9"/>
-      <c r="B155" s="10"/>
-      <c r="C155" s="11"/>
-      <c r="D155" s="11"/>
+    <row r="155" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A155" s="6"/>
+      <c r="B155" s="5"/>
+      <c r="C155" s="7"/>
+      <c r="D155" s="7"/>
       <c r="G155" s="2"/>
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
@@ -4579,11 +4618,11 @@
       <c r="Y155" s="2"/>
       <c r="Z155" s="2"/>
     </row>
-    <row r="156">
-      <c r="A156" s="9"/>
-      <c r="B156" s="10"/>
-      <c r="C156" s="11"/>
-      <c r="D156" s="11"/>
+    <row r="156" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A156" s="6"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="7"/>
+      <c r="D156" s="7"/>
       <c r="G156" s="2"/>
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
@@ -4605,11 +4644,11 @@
       <c r="Y156" s="2"/>
       <c r="Z156" s="2"/>
     </row>
-    <row r="157">
-      <c r="A157" s="9"/>
-      <c r="B157" s="10"/>
-      <c r="C157" s="11"/>
-      <c r="D157" s="11"/>
+    <row r="157" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A157" s="6"/>
+      <c r="B157" s="5"/>
+      <c r="C157" s="7"/>
+      <c r="D157" s="7"/>
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
@@ -4631,11 +4670,11 @@
       <c r="Y157" s="2"/>
       <c r="Z157" s="2"/>
     </row>
-    <row r="158">
-      <c r="A158" s="9"/>
-      <c r="B158" s="10"/>
-      <c r="C158" s="11"/>
-      <c r="D158" s="11"/>
+    <row r="158" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A158" s="6"/>
+      <c r="B158" s="5"/>
+      <c r="C158" s="7"/>
+      <c r="D158" s="7"/>
       <c r="G158" s="2"/>
       <c r="H158" s="2"/>
       <c r="I158" s="2"/>
@@ -4657,11 +4696,11 @@
       <c r="Y158" s="2"/>
       <c r="Z158" s="2"/>
     </row>
-    <row r="159">
-      <c r="A159" s="9"/>
-      <c r="B159" s="10"/>
-      <c r="C159" s="11"/>
-      <c r="D159" s="11"/>
+    <row r="159" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A159" s="6"/>
+      <c r="B159" s="5"/>
+      <c r="C159" s="7"/>
+      <c r="D159" s="7"/>
       <c r="G159" s="2"/>
       <c r="H159" s="2"/>
       <c r="I159" s="2"/>
@@ -4683,11 +4722,11 @@
       <c r="Y159" s="2"/>
       <c r="Z159" s="2"/>
     </row>
-    <row r="160">
-      <c r="A160" s="9"/>
-      <c r="B160" s="10"/>
-      <c r="C160" s="11"/>
-      <c r="D160" s="11"/>
+    <row r="160" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A160" s="6"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="7"/>
+      <c r="D160" s="7"/>
       <c r="G160" s="2"/>
       <c r="H160" s="2"/>
       <c r="I160" s="2"/>
@@ -4709,11 +4748,11 @@
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
     </row>
-    <row r="161">
-      <c r="A161" s="9"/>
-      <c r="B161" s="10"/>
-      <c r="C161" s="11"/>
-      <c r="D161" s="11"/>
+    <row r="161" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A161" s="6"/>
+      <c r="B161" s="5"/>
+      <c r="C161" s="7"/>
+      <c r="D161" s="7"/>
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
@@ -4735,11 +4774,11 @@
       <c r="Y161" s="2"/>
       <c r="Z161" s="2"/>
     </row>
-    <row r="162">
-      <c r="A162" s="9"/>
-      <c r="B162" s="10"/>
-      <c r="C162" s="11"/>
-      <c r="D162" s="11"/>
+    <row r="162" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A162" s="6"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="7"/>
+      <c r="D162" s="7"/>
       <c r="G162" s="2"/>
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
@@ -4761,11 +4800,11 @@
       <c r="Y162" s="2"/>
       <c r="Z162" s="2"/>
     </row>
-    <row r="163">
-      <c r="A163" s="9"/>
-      <c r="B163" s="10"/>
-      <c r="C163" s="11"/>
-      <c r="D163" s="11"/>
+    <row r="163" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A163" s="6"/>
+      <c r="B163" s="5"/>
+      <c r="C163" s="7"/>
+      <c r="D163" s="7"/>
       <c r="G163" s="2"/>
       <c r="H163" s="2"/>
       <c r="I163" s="2"/>
@@ -4787,11 +4826,11 @@
       <c r="Y163" s="2"/>
       <c r="Z163" s="2"/>
     </row>
-    <row r="164">
-      <c r="A164" s="9"/>
-      <c r="B164" s="10"/>
-      <c r="C164" s="11"/>
-      <c r="D164" s="11"/>
+    <row r="164" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A164" s="6"/>
+      <c r="B164" s="5"/>
+      <c r="C164" s="7"/>
+      <c r="D164" s="7"/>
       <c r="G164" s="2"/>
       <c r="H164" s="2"/>
       <c r="I164" s="2"/>
@@ -4813,11 +4852,11 @@
       <c r="Y164" s="2"/>
       <c r="Z164" s="2"/>
     </row>
-    <row r="165">
-      <c r="A165" s="9"/>
-      <c r="B165" s="10"/>
-      <c r="C165" s="11"/>
-      <c r="D165" s="11"/>
+    <row r="165" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A165" s="6"/>
+      <c r="B165" s="5"/>
+      <c r="C165" s="7"/>
+      <c r="D165" s="7"/>
       <c r="G165" s="2"/>
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
@@ -4839,11 +4878,11 @@
       <c r="Y165" s="2"/>
       <c r="Z165" s="2"/>
     </row>
-    <row r="166">
-      <c r="A166" s="9"/>
-      <c r="B166" s="10"/>
-      <c r="C166" s="11"/>
-      <c r="D166" s="11"/>
+    <row r="166" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A166" s="6"/>
+      <c r="B166" s="5"/>
+      <c r="C166" s="7"/>
+      <c r="D166" s="7"/>
       <c r="G166" s="2"/>
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
@@ -4865,11 +4904,11 @@
       <c r="Y166" s="2"/>
       <c r="Z166" s="2"/>
     </row>
-    <row r="167">
-      <c r="A167" s="9"/>
-      <c r="B167" s="10"/>
-      <c r="C167" s="11"/>
-      <c r="D167" s="11"/>
+    <row r="167" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A167" s="6"/>
+      <c r="B167" s="5"/>
+      <c r="C167" s="7"/>
+      <c r="D167" s="7"/>
       <c r="G167" s="2"/>
       <c r="H167" s="2"/>
       <c r="I167" s="2"/>
@@ -4891,11 +4930,11 @@
       <c r="Y167" s="2"/>
       <c r="Z167" s="2"/>
     </row>
-    <row r="168">
-      <c r="A168" s="9"/>
-      <c r="B168" s="10"/>
-      <c r="C168" s="11"/>
-      <c r="D168" s="11"/>
+    <row r="168" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A168" s="6"/>
+      <c r="B168" s="5"/>
+      <c r="C168" s="7"/>
+      <c r="D168" s="7"/>
       <c r="G168" s="2"/>
       <c r="H168" s="2"/>
       <c r="I168" s="2"/>
@@ -4917,11 +4956,11 @@
       <c r="Y168" s="2"/>
       <c r="Z168" s="2"/>
     </row>
-    <row r="169">
-      <c r="A169" s="9"/>
-      <c r="B169" s="10"/>
-      <c r="C169" s="11"/>
-      <c r="D169" s="11"/>
+    <row r="169" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A169" s="6"/>
+      <c r="B169" s="5"/>
+      <c r="C169" s="7"/>
+      <c r="D169" s="7"/>
       <c r="G169" s="2"/>
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
@@ -4943,11 +4982,11 @@
       <c r="Y169" s="2"/>
       <c r="Z169" s="2"/>
     </row>
-    <row r="170">
-      <c r="A170" s="9"/>
-      <c r="B170" s="10"/>
-      <c r="C170" s="11"/>
-      <c r="D170" s="11"/>
+    <row r="170" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A170" s="6"/>
+      <c r="B170" s="5"/>
+      <c r="C170" s="7"/>
+      <c r="D170" s="7"/>
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
       <c r="I170" s="2"/>
@@ -4969,11 +5008,11 @@
       <c r="Y170" s="2"/>
       <c r="Z170" s="2"/>
     </row>
-    <row r="171">
-      <c r="A171" s="9"/>
-      <c r="B171" s="10"/>
-      <c r="C171" s="11"/>
-      <c r="D171" s="11"/>
+    <row r="171" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A171" s="6"/>
+      <c r="B171" s="5"/>
+      <c r="C171" s="7"/>
+      <c r="D171" s="7"/>
       <c r="G171" s="2"/>
       <c r="H171" s="2"/>
       <c r="I171" s="2"/>
@@ -4995,11 +5034,11 @@
       <c r="Y171" s="2"/>
       <c r="Z171" s="2"/>
     </row>
-    <row r="172">
-      <c r="A172" s="9"/>
-      <c r="B172" s="10"/>
-      <c r="C172" s="11"/>
-      <c r="D172" s="11"/>
+    <row r="172" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A172" s="6"/>
+      <c r="B172" s="5"/>
+      <c r="C172" s="7"/>
+      <c r="D172" s="7"/>
       <c r="G172" s="2"/>
       <c r="H172" s="2"/>
       <c r="I172" s="2"/>
@@ -5021,11 +5060,11 @@
       <c r="Y172" s="2"/>
       <c r="Z172" s="2"/>
     </row>
-    <row r="173">
-      <c r="A173" s="9"/>
-      <c r="B173" s="10"/>
-      <c r="C173" s="11"/>
-      <c r="D173" s="11"/>
+    <row r="173" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A173" s="6"/>
+      <c r="B173" s="5"/>
+      <c r="C173" s="7"/>
+      <c r="D173" s="7"/>
       <c r="G173" s="2"/>
       <c r="H173" s="2"/>
       <c r="I173" s="2"/>
@@ -5047,11 +5086,11 @@
       <c r="Y173" s="2"/>
       <c r="Z173" s="2"/>
     </row>
-    <row r="174">
-      <c r="A174" s="9"/>
-      <c r="B174" s="10"/>
-      <c r="C174" s="11"/>
-      <c r="D174" s="11"/>
+    <row r="174" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A174" s="6"/>
+      <c r="B174" s="5"/>
+      <c r="C174" s="7"/>
+      <c r="D174" s="7"/>
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
       <c r="I174" s="2"/>
@@ -5073,11 +5112,11 @@
       <c r="Y174" s="2"/>
       <c r="Z174" s="2"/>
     </row>
-    <row r="175">
-      <c r="A175" s="9"/>
-      <c r="B175" s="10"/>
-      <c r="C175" s="11"/>
-      <c r="D175" s="11"/>
+    <row r="175" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A175" s="6"/>
+      <c r="B175" s="5"/>
+      <c r="C175" s="7"/>
+      <c r="D175" s="7"/>
       <c r="G175" s="2"/>
       <c r="H175" s="2"/>
       <c r="I175" s="2"/>
@@ -5099,11 +5138,11 @@
       <c r="Y175" s="2"/>
       <c r="Z175" s="2"/>
     </row>
-    <row r="176">
-      <c r="A176" s="9"/>
-      <c r="B176" s="10"/>
-      <c r="C176" s="11"/>
-      <c r="D176" s="11"/>
+    <row r="176" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A176" s="6"/>
+      <c r="B176" s="5"/>
+      <c r="C176" s="7"/>
+      <c r="D176" s="7"/>
       <c r="G176" s="2"/>
       <c r="H176" s="2"/>
       <c r="I176" s="2"/>
@@ -5125,11 +5164,11 @@
       <c r="Y176" s="2"/>
       <c r="Z176" s="2"/>
     </row>
-    <row r="177">
-      <c r="A177" s="9"/>
-      <c r="B177" s="10"/>
-      <c r="C177" s="11"/>
-      <c r="D177" s="11"/>
+    <row r="177" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A177" s="6"/>
+      <c r="B177" s="5"/>
+      <c r="C177" s="7"/>
+      <c r="D177" s="7"/>
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>
       <c r="I177" s="2"/>
@@ -5151,11 +5190,11 @@
       <c r="Y177" s="2"/>
       <c r="Z177" s="2"/>
     </row>
-    <row r="178">
-      <c r="A178" s="9"/>
-      <c r="B178" s="10"/>
-      <c r="C178" s="11"/>
-      <c r="D178" s="11"/>
+    <row r="178" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A178" s="6"/>
+      <c r="B178" s="5"/>
+      <c r="C178" s="7"/>
+      <c r="D178" s="7"/>
       <c r="G178" s="2"/>
       <c r="H178" s="2"/>
       <c r="I178" s="2"/>
@@ -5177,11 +5216,11 @@
       <c r="Y178" s="2"/>
       <c r="Z178" s="2"/>
     </row>
-    <row r="179">
-      <c r="A179" s="9"/>
-      <c r="B179" s="10"/>
-      <c r="C179" s="11"/>
-      <c r="D179" s="11"/>
+    <row r="179" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A179" s="6"/>
+      <c r="B179" s="5"/>
+      <c r="C179" s="7"/>
+      <c r="D179" s="7"/>
       <c r="G179" s="2"/>
       <c r="H179" s="2"/>
       <c r="I179" s="2"/>
@@ -5203,11 +5242,11 @@
       <c r="Y179" s="2"/>
       <c r="Z179" s="2"/>
     </row>
-    <row r="180">
-      <c r="A180" s="9"/>
-      <c r="B180" s="10"/>
-      <c r="C180" s="11"/>
-      <c r="D180" s="11"/>
+    <row r="180" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A180" s="6"/>
+      <c r="B180" s="5"/>
+      <c r="C180" s="7"/>
+      <c r="D180" s="7"/>
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
@@ -5229,11 +5268,11 @@
       <c r="Y180" s="2"/>
       <c r="Z180" s="2"/>
     </row>
-    <row r="181">
-      <c r="A181" s="9"/>
-      <c r="B181" s="10"/>
-      <c r="C181" s="11"/>
-      <c r="D181" s="11"/>
+    <row r="181" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A181" s="6"/>
+      <c r="B181" s="5"/>
+      <c r="C181" s="7"/>
+      <c r="D181" s="7"/>
       <c r="G181" s="2"/>
       <c r="H181" s="2"/>
       <c r="I181" s="2"/>
@@ -5255,11 +5294,11 @@
       <c r="Y181" s="2"/>
       <c r="Z181" s="2"/>
     </row>
-    <row r="182">
-      <c r="A182" s="9"/>
-      <c r="B182" s="10"/>
-      <c r="C182" s="11"/>
-      <c r="D182" s="11"/>
+    <row r="182" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A182" s="6"/>
+      <c r="B182" s="5"/>
+      <c r="C182" s="7"/>
+      <c r="D182" s="7"/>
       <c r="G182" s="2"/>
       <c r="H182" s="2"/>
       <c r="I182" s="2"/>
@@ -5281,11 +5320,11 @@
       <c r="Y182" s="2"/>
       <c r="Z182" s="2"/>
     </row>
-    <row r="183">
-      <c r="A183" s="9"/>
-      <c r="B183" s="10"/>
-      <c r="C183" s="11"/>
-      <c r="D183" s="11"/>
+    <row r="183" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A183" s="6"/>
+      <c r="B183" s="5"/>
+      <c r="C183" s="7"/>
+      <c r="D183" s="7"/>
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
@@ -5307,11 +5346,11 @@
       <c r="Y183" s="2"/>
       <c r="Z183" s="2"/>
     </row>
-    <row r="184">
-      <c r="A184" s="9"/>
-      <c r="B184" s="10"/>
-      <c r="C184" s="11"/>
-      <c r="D184" s="11"/>
+    <row r="184" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A184" s="6"/>
+      <c r="B184" s="5"/>
+      <c r="C184" s="7"/>
+      <c r="D184" s="7"/>
       <c r="G184" s="2"/>
       <c r="H184" s="2"/>
       <c r="I184" s="2"/>
@@ -5333,11 +5372,11 @@
       <c r="Y184" s="2"/>
       <c r="Z184" s="2"/>
     </row>
-    <row r="185">
-      <c r="A185" s="9"/>
-      <c r="B185" s="10"/>
-      <c r="C185" s="11"/>
-      <c r="D185" s="11"/>
+    <row r="185" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A185" s="6"/>
+      <c r="B185" s="5"/>
+      <c r="C185" s="7"/>
+      <c r="D185" s="7"/>
       <c r="G185" s="2"/>
       <c r="H185" s="2"/>
       <c r="I185" s="2"/>
@@ -5359,11 +5398,11 @@
       <c r="Y185" s="2"/>
       <c r="Z185" s="2"/>
     </row>
-    <row r="186">
-      <c r="A186" s="9"/>
-      <c r="B186" s="10"/>
-      <c r="C186" s="11"/>
-      <c r="D186" s="11"/>
+    <row r="186" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A186" s="6"/>
+      <c r="B186" s="5"/>
+      <c r="C186" s="7"/>
+      <c r="D186" s="7"/>
       <c r="G186" s="2"/>
       <c r="H186" s="2"/>
       <c r="I186" s="2"/>
@@ -5385,11 +5424,11 @@
       <c r="Y186" s="2"/>
       <c r="Z186" s="2"/>
     </row>
-    <row r="187">
-      <c r="A187" s="9"/>
-      <c r="B187" s="10"/>
-      <c r="C187" s="11"/>
-      <c r="D187" s="11"/>
+    <row r="187" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A187" s="6"/>
+      <c r="B187" s="5"/>
+      <c r="C187" s="7"/>
+      <c r="D187" s="7"/>
       <c r="G187" s="2"/>
       <c r="H187" s="2"/>
       <c r="I187" s="2"/>
@@ -5411,11 +5450,11 @@
       <c r="Y187" s="2"/>
       <c r="Z187" s="2"/>
     </row>
-    <row r="188">
-      <c r="A188" s="9"/>
-      <c r="B188" s="10"/>
-      <c r="C188" s="11"/>
-      <c r="D188" s="11"/>
+    <row r="188" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A188" s="6"/>
+      <c r="B188" s="5"/>
+      <c r="C188" s="7"/>
+      <c r="D188" s="7"/>
       <c r="G188" s="2"/>
       <c r="H188" s="2"/>
       <c r="I188" s="2"/>
@@ -5437,11 +5476,11 @@
       <c r="Y188" s="2"/>
       <c r="Z188" s="2"/>
     </row>
-    <row r="189">
-      <c r="A189" s="9"/>
-      <c r="B189" s="10"/>
-      <c r="C189" s="11"/>
-      <c r="D189" s="11"/>
+    <row r="189" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A189" s="6"/>
+      <c r="B189" s="5"/>
+      <c r="C189" s="7"/>
+      <c r="D189" s="7"/>
       <c r="G189" s="2"/>
       <c r="H189" s="2"/>
       <c r="I189" s="2"/>
@@ -5463,11 +5502,11 @@
       <c r="Y189" s="2"/>
       <c r="Z189" s="2"/>
     </row>
-    <row r="190">
-      <c r="A190" s="9"/>
-      <c r="B190" s="10"/>
-      <c r="C190" s="11"/>
-      <c r="D190" s="11"/>
+    <row r="190" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A190" s="6"/>
+      <c r="B190" s="5"/>
+      <c r="C190" s="7"/>
+      <c r="D190" s="7"/>
       <c r="G190" s="2"/>
       <c r="H190" s="2"/>
       <c r="I190" s="2"/>
@@ -5489,11 +5528,11 @@
       <c r="Y190" s="2"/>
       <c r="Z190" s="2"/>
     </row>
-    <row r="191">
-      <c r="A191" s="9"/>
-      <c r="B191" s="10"/>
-      <c r="C191" s="11"/>
-      <c r="D191" s="11"/>
+    <row r="191" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A191" s="6"/>
+      <c r="B191" s="5"/>
+      <c r="C191" s="7"/>
+      <c r="D191" s="7"/>
       <c r="G191" s="2"/>
       <c r="H191" s="2"/>
       <c r="I191" s="2"/>
@@ -5515,11 +5554,11 @@
       <c r="Y191" s="2"/>
       <c r="Z191" s="2"/>
     </row>
-    <row r="192">
-      <c r="A192" s="9"/>
-      <c r="B192" s="10"/>
-      <c r="C192" s="11"/>
-      <c r="D192" s="11"/>
+    <row r="192" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A192" s="6"/>
+      <c r="B192" s="5"/>
+      <c r="C192" s="7"/>
+      <c r="D192" s="7"/>
       <c r="G192" s="2"/>
       <c r="H192" s="2"/>
       <c r="I192" s="2"/>
@@ -5541,11 +5580,11 @@
       <c r="Y192" s="2"/>
       <c r="Z192" s="2"/>
     </row>
-    <row r="193">
-      <c r="A193" s="9"/>
-      <c r="B193" s="10"/>
-      <c r="C193" s="11"/>
-      <c r="D193" s="11"/>
+    <row r="193" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A193" s="6"/>
+      <c r="B193" s="5"/>
+      <c r="C193" s="7"/>
+      <c r="D193" s="7"/>
       <c r="G193" s="2"/>
       <c r="H193" s="2"/>
       <c r="I193" s="2"/>
@@ -5567,11 +5606,11 @@
       <c r="Y193" s="2"/>
       <c r="Z193" s="2"/>
     </row>
-    <row r="194">
-      <c r="A194" s="9"/>
-      <c r="B194" s="10"/>
-      <c r="C194" s="11"/>
-      <c r="D194" s="11"/>
+    <row r="194" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A194" s="6"/>
+      <c r="B194" s="5"/>
+      <c r="C194" s="7"/>
+      <c r="D194" s="7"/>
       <c r="G194" s="2"/>
       <c r="H194" s="2"/>
       <c r="I194" s="2"/>
@@ -5593,11 +5632,11 @@
       <c r="Y194" s="2"/>
       <c r="Z194" s="2"/>
     </row>
-    <row r="195">
-      <c r="A195" s="9"/>
-      <c r="B195" s="10"/>
-      <c r="C195" s="11"/>
-      <c r="D195" s="11"/>
+    <row r="195" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A195" s="6"/>
+      <c r="B195" s="5"/>
+      <c r="C195" s="7"/>
+      <c r="D195" s="7"/>
       <c r="G195" s="2"/>
       <c r="H195" s="2"/>
       <c r="I195" s="2"/>
@@ -5619,11 +5658,11 @@
       <c r="Y195" s="2"/>
       <c r="Z195" s="2"/>
     </row>
-    <row r="196">
-      <c r="A196" s="9"/>
-      <c r="B196" s="10"/>
-      <c r="C196" s="11"/>
-      <c r="D196" s="11"/>
+    <row r="196" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A196" s="6"/>
+      <c r="B196" s="5"/>
+      <c r="C196" s="7"/>
+      <c r="D196" s="7"/>
       <c r="G196" s="2"/>
       <c r="H196" s="2"/>
       <c r="I196" s="2"/>
@@ -5645,11 +5684,11 @@
       <c r="Y196" s="2"/>
       <c r="Z196" s="2"/>
     </row>
-    <row r="197">
-      <c r="A197" s="9"/>
-      <c r="B197" s="10"/>
-      <c r="C197" s="11"/>
-      <c r="D197" s="11"/>
+    <row r="197" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A197" s="6"/>
+      <c r="B197" s="5"/>
+      <c r="C197" s="7"/>
+      <c r="D197" s="7"/>
       <c r="G197" s="2"/>
       <c r="H197" s="2"/>
       <c r="I197" s="2"/>
@@ -5671,11 +5710,11 @@
       <c r="Y197" s="2"/>
       <c r="Z197" s="2"/>
     </row>
-    <row r="198">
-      <c r="A198" s="9"/>
-      <c r="B198" s="10"/>
-      <c r="C198" s="11"/>
-      <c r="D198" s="11"/>
+    <row r="198" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A198" s="6"/>
+      <c r="B198" s="5"/>
+      <c r="C198" s="7"/>
+      <c r="D198" s="7"/>
       <c r="G198" s="2"/>
       <c r="H198" s="2"/>
       <c r="I198" s="2"/>
@@ -5697,11 +5736,11 @@
       <c r="Y198" s="2"/>
       <c r="Z198" s="2"/>
     </row>
-    <row r="199">
-      <c r="A199" s="9"/>
-      <c r="B199" s="10"/>
-      <c r="C199" s="11"/>
-      <c r="D199" s="11"/>
+    <row r="199" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A199" s="6"/>
+      <c r="B199" s="5"/>
+      <c r="C199" s="7"/>
+      <c r="D199" s="7"/>
       <c r="G199" s="2"/>
       <c r="H199" s="2"/>
       <c r="I199" s="2"/>
@@ -5723,11 +5762,11 @@
       <c r="Y199" s="2"/>
       <c r="Z199" s="2"/>
     </row>
-    <row r="200">
-      <c r="A200" s="9"/>
-      <c r="B200" s="10"/>
-      <c r="C200" s="11"/>
-      <c r="D200" s="11"/>
+    <row r="200" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A200" s="6"/>
+      <c r="B200" s="5"/>
+      <c r="C200" s="7"/>
+      <c r="D200" s="7"/>
       <c r="G200" s="2"/>
       <c r="H200" s="2"/>
       <c r="I200" s="2"/>
@@ -5749,11 +5788,11 @@
       <c r="Y200" s="2"/>
       <c r="Z200" s="2"/>
     </row>
-    <row r="201">
-      <c r="A201" s="9"/>
-      <c r="B201" s="10"/>
-      <c r="C201" s="11"/>
-      <c r="D201" s="11"/>
+    <row r="201" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A201" s="6"/>
+      <c r="B201" s="5"/>
+      <c r="C201" s="7"/>
+      <c r="D201" s="7"/>
       <c r="G201" s="2"/>
       <c r="H201" s="2"/>
       <c r="I201" s="2"/>
@@ -5775,11 +5814,11 @@
       <c r="Y201" s="2"/>
       <c r="Z201" s="2"/>
     </row>
-    <row r="202">
-      <c r="A202" s="9"/>
-      <c r="B202" s="10"/>
-      <c r="C202" s="11"/>
-      <c r="D202" s="11"/>
+    <row r="202" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A202" s="6"/>
+      <c r="B202" s="5"/>
+      <c r="C202" s="7"/>
+      <c r="D202" s="7"/>
       <c r="G202" s="2"/>
       <c r="H202" s="2"/>
       <c r="I202" s="2"/>
@@ -5801,11 +5840,11 @@
       <c r="Y202" s="2"/>
       <c r="Z202" s="2"/>
     </row>
-    <row r="203">
-      <c r="A203" s="9"/>
-      <c r="B203" s="10"/>
-      <c r="C203" s="11"/>
-      <c r="D203" s="11"/>
+    <row r="203" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A203" s="6"/>
+      <c r="B203" s="5"/>
+      <c r="C203" s="7"/>
+      <c r="D203" s="7"/>
       <c r="G203" s="2"/>
       <c r="H203" s="2"/>
       <c r="I203" s="2"/>
@@ -5827,11 +5866,11 @@
       <c r="Y203" s="2"/>
       <c r="Z203" s="2"/>
     </row>
-    <row r="204">
-      <c r="A204" s="9"/>
-      <c r="B204" s="10"/>
-      <c r="C204" s="11"/>
-      <c r="D204" s="11"/>
+    <row r="204" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A204" s="6"/>
+      <c r="B204" s="5"/>
+      <c r="C204" s="7"/>
+      <c r="D204" s="7"/>
       <c r="G204" s="2"/>
       <c r="H204" s="2"/>
       <c r="I204" s="2"/>
@@ -5853,11 +5892,11 @@
       <c r="Y204" s="2"/>
       <c r="Z204" s="2"/>
     </row>
-    <row r="205">
-      <c r="A205" s="9"/>
-      <c r="B205" s="10"/>
-      <c r="C205" s="11"/>
-      <c r="D205" s="11"/>
+    <row r="205" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A205" s="6"/>
+      <c r="B205" s="5"/>
+      <c r="C205" s="7"/>
+      <c r="D205" s="7"/>
       <c r="G205" s="2"/>
       <c r="H205" s="2"/>
       <c r="I205" s="2"/>
@@ -5879,11 +5918,11 @@
       <c r="Y205" s="2"/>
       <c r="Z205" s="2"/>
     </row>
-    <row r="206">
-      <c r="A206" s="9"/>
-      <c r="B206" s="10"/>
-      <c r="C206" s="11"/>
-      <c r="D206" s="11"/>
+    <row r="206" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A206" s="6"/>
+      <c r="B206" s="5"/>
+      <c r="C206" s="7"/>
+      <c r="D206" s="7"/>
       <c r="G206" s="2"/>
       <c r="H206" s="2"/>
       <c r="I206" s="2"/>
@@ -5905,11 +5944,11 @@
       <c r="Y206" s="2"/>
       <c r="Z206" s="2"/>
     </row>
-    <row r="207">
-      <c r="A207" s="9"/>
-      <c r="B207" s="10"/>
-      <c r="C207" s="11"/>
-      <c r="D207" s="11"/>
+    <row r="207" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A207" s="6"/>
+      <c r="B207" s="5"/>
+      <c r="C207" s="7"/>
+      <c r="D207" s="7"/>
       <c r="G207" s="2"/>
       <c r="H207" s="2"/>
       <c r="I207" s="2"/>
@@ -5931,11 +5970,11 @@
       <c r="Y207" s="2"/>
       <c r="Z207" s="2"/>
     </row>
-    <row r="208">
-      <c r="A208" s="9"/>
-      <c r="B208" s="10"/>
-      <c r="C208" s="11"/>
-      <c r="D208" s="11"/>
+    <row r="208" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A208" s="6"/>
+      <c r="B208" s="5"/>
+      <c r="C208" s="7"/>
+      <c r="D208" s="7"/>
       <c r="G208" s="2"/>
       <c r="H208" s="2"/>
       <c r="I208" s="2"/>
@@ -5957,11 +5996,11 @@
       <c r="Y208" s="2"/>
       <c r="Z208" s="2"/>
     </row>
-    <row r="209">
-      <c r="A209" s="9"/>
-      <c r="B209" s="10"/>
-      <c r="C209" s="11"/>
-      <c r="D209" s="11"/>
+    <row r="209" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A209" s="6"/>
+      <c r="B209" s="5"/>
+      <c r="C209" s="7"/>
+      <c r="D209" s="7"/>
       <c r="G209" s="2"/>
       <c r="H209" s="2"/>
       <c r="I209" s="2"/>
@@ -5983,11 +6022,11 @@
       <c r="Y209" s="2"/>
       <c r="Z209" s="2"/>
     </row>
-    <row r="210">
-      <c r="A210" s="9"/>
-      <c r="B210" s="10"/>
-      <c r="C210" s="11"/>
-      <c r="D210" s="11"/>
+    <row r="210" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A210" s="6"/>
+      <c r="B210" s="5"/>
+      <c r="C210" s="7"/>
+      <c r="D210" s="7"/>
       <c r="G210" s="2"/>
       <c r="H210" s="2"/>
       <c r="I210" s="2"/>
@@ -6009,11 +6048,11 @@
       <c r="Y210" s="2"/>
       <c r="Z210" s="2"/>
     </row>
-    <row r="211">
-      <c r="A211" s="9"/>
-      <c r="B211" s="10"/>
-      <c r="C211" s="11"/>
-      <c r="D211" s="11"/>
+    <row r="211" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A211" s="6"/>
+      <c r="B211" s="5"/>
+      <c r="C211" s="7"/>
+      <c r="D211" s="7"/>
       <c r="G211" s="2"/>
       <c r="H211" s="2"/>
       <c r="I211" s="2"/>
@@ -6035,11 +6074,11 @@
       <c r="Y211" s="2"/>
       <c r="Z211" s="2"/>
     </row>
-    <row r="212">
-      <c r="A212" s="9"/>
-      <c r="B212" s="10"/>
-      <c r="C212" s="11"/>
-      <c r="D212" s="11"/>
+    <row r="212" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A212" s="6"/>
+      <c r="B212" s="5"/>
+      <c r="C212" s="7"/>
+      <c r="D212" s="7"/>
       <c r="G212" s="2"/>
       <c r="H212" s="2"/>
       <c r="I212" s="2"/>
@@ -6061,11 +6100,11 @@
       <c r="Y212" s="2"/>
       <c r="Z212" s="2"/>
     </row>
-    <row r="213">
-      <c r="A213" s="9"/>
-      <c r="B213" s="10"/>
-      <c r="C213" s="11"/>
-      <c r="D213" s="11"/>
+    <row r="213" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A213" s="6"/>
+      <c r="B213" s="5"/>
+      <c r="C213" s="7"/>
+      <c r="D213" s="7"/>
       <c r="G213" s="2"/>
       <c r="H213" s="2"/>
       <c r="I213" s="2"/>
@@ -6087,11 +6126,11 @@
       <c r="Y213" s="2"/>
       <c r="Z213" s="2"/>
     </row>
-    <row r="214">
-      <c r="A214" s="9"/>
-      <c r="B214" s="10"/>
-      <c r="C214" s="11"/>
-      <c r="D214" s="11"/>
+    <row r="214" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A214" s="6"/>
+      <c r="B214" s="5"/>
+      <c r="C214" s="7"/>
+      <c r="D214" s="7"/>
       <c r="G214" s="2"/>
       <c r="H214" s="2"/>
       <c r="I214" s="2"/>
@@ -6113,11 +6152,11 @@
       <c r="Y214" s="2"/>
       <c r="Z214" s="2"/>
     </row>
-    <row r="215">
-      <c r="A215" s="9"/>
-      <c r="B215" s="10"/>
-      <c r="C215" s="11"/>
-      <c r="D215" s="11"/>
+    <row r="215" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A215" s="6"/>
+      <c r="B215" s="5"/>
+      <c r="C215" s="7"/>
+      <c r="D215" s="7"/>
       <c r="G215" s="2"/>
       <c r="H215" s="2"/>
       <c r="I215" s="2"/>
@@ -6139,11 +6178,11 @@
       <c r="Y215" s="2"/>
       <c r="Z215" s="2"/>
     </row>
-    <row r="216">
-      <c r="A216" s="9"/>
-      <c r="B216" s="10"/>
-      <c r="C216" s="11"/>
-      <c r="D216" s="11"/>
+    <row r="216" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A216" s="6"/>
+      <c r="B216" s="5"/>
+      <c r="C216" s="7"/>
+      <c r="D216" s="7"/>
       <c r="G216" s="2"/>
       <c r="H216" s="2"/>
       <c r="I216" s="2"/>
@@ -6165,11 +6204,11 @@
       <c r="Y216" s="2"/>
       <c r="Z216" s="2"/>
     </row>
-    <row r="217">
-      <c r="A217" s="9"/>
-      <c r="B217" s="10"/>
-      <c r="C217" s="11"/>
-      <c r="D217" s="11"/>
+    <row r="217" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A217" s="6"/>
+      <c r="B217" s="5"/>
+      <c r="C217" s="7"/>
+      <c r="D217" s="7"/>
       <c r="G217" s="2"/>
       <c r="H217" s="2"/>
       <c r="I217" s="2"/>
@@ -6191,11 +6230,11 @@
       <c r="Y217" s="2"/>
       <c r="Z217" s="2"/>
     </row>
-    <row r="218">
-      <c r="A218" s="9"/>
-      <c r="B218" s="10"/>
-      <c r="C218" s="11"/>
-      <c r="D218" s="11"/>
+    <row r="218" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A218" s="6"/>
+      <c r="B218" s="5"/>
+      <c r="C218" s="7"/>
+      <c r="D218" s="7"/>
       <c r="G218" s="2"/>
       <c r="H218" s="2"/>
       <c r="I218" s="2"/>
@@ -6217,11 +6256,11 @@
       <c r="Y218" s="2"/>
       <c r="Z218" s="2"/>
     </row>
-    <row r="219">
-      <c r="A219" s="9"/>
-      <c r="B219" s="10"/>
-      <c r="C219" s="11"/>
-      <c r="D219" s="11"/>
+    <row r="219" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A219" s="6"/>
+      <c r="B219" s="5"/>
+      <c r="C219" s="7"/>
+      <c r="D219" s="7"/>
       <c r="G219" s="2"/>
       <c r="H219" s="2"/>
       <c r="I219" s="2"/>
@@ -6243,11 +6282,11 @@
       <c r="Y219" s="2"/>
       <c r="Z219" s="2"/>
     </row>
-    <row r="220">
-      <c r="A220" s="9"/>
-      <c r="B220" s="10"/>
-      <c r="C220" s="11"/>
-      <c r="D220" s="11"/>
+    <row r="220" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A220" s="6"/>
+      <c r="B220" s="5"/>
+      <c r="C220" s="7"/>
+      <c r="D220" s="7"/>
       <c r="G220" s="2"/>
       <c r="H220" s="2"/>
       <c r="I220" s="2"/>
@@ -6269,11 +6308,11 @@
       <c r="Y220" s="2"/>
       <c r="Z220" s="2"/>
     </row>
-    <row r="221">
-      <c r="A221" s="9"/>
-      <c r="B221" s="10"/>
-      <c r="C221" s="11"/>
-      <c r="D221" s="11"/>
+    <row r="221" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A221" s="6"/>
+      <c r="B221" s="5"/>
+      <c r="C221" s="7"/>
+      <c r="D221" s="7"/>
       <c r="G221" s="2"/>
       <c r="H221" s="2"/>
       <c r="I221" s="2"/>
@@ -6295,11 +6334,11 @@
       <c r="Y221" s="2"/>
       <c r="Z221" s="2"/>
     </row>
-    <row r="222">
-      <c r="A222" s="9"/>
-      <c r="B222" s="10"/>
-      <c r="C222" s="11"/>
-      <c r="D222" s="11"/>
+    <row r="222" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A222" s="6"/>
+      <c r="B222" s="5"/>
+      <c r="C222" s="7"/>
+      <c r="D222" s="7"/>
       <c r="G222" s="2"/>
       <c r="H222" s="2"/>
       <c r="I222" s="2"/>
@@ -6321,11 +6360,11 @@
       <c r="Y222" s="2"/>
       <c r="Z222" s="2"/>
     </row>
-    <row r="223">
-      <c r="A223" s="9"/>
-      <c r="B223" s="10"/>
-      <c r="C223" s="11"/>
-      <c r="D223" s="11"/>
+    <row r="223" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A223" s="6"/>
+      <c r="B223" s="5"/>
+      <c r="C223" s="7"/>
+      <c r="D223" s="7"/>
       <c r="G223" s="2"/>
       <c r="H223" s="2"/>
       <c r="I223" s="2"/>
@@ -6347,11 +6386,11 @@
       <c r="Y223" s="2"/>
       <c r="Z223" s="2"/>
     </row>
-    <row r="224">
-      <c r="A224" s="9"/>
-      <c r="B224" s="10"/>
-      <c r="C224" s="11"/>
-      <c r="D224" s="11"/>
+    <row r="224" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A224" s="6"/>
+      <c r="B224" s="5"/>
+      <c r="C224" s="7"/>
+      <c r="D224" s="7"/>
       <c r="G224" s="2"/>
       <c r="H224" s="2"/>
       <c r="I224" s="2"/>
@@ -6373,11 +6412,11 @@
       <c r="Y224" s="2"/>
       <c r="Z224" s="2"/>
     </row>
-    <row r="225">
-      <c r="A225" s="9"/>
-      <c r="B225" s="10"/>
-      <c r="C225" s="11"/>
-      <c r="D225" s="11"/>
+    <row r="225" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A225" s="6"/>
+      <c r="B225" s="5"/>
+      <c r="C225" s="7"/>
+      <c r="D225" s="7"/>
       <c r="G225" s="2"/>
       <c r="H225" s="2"/>
       <c r="I225" s="2"/>
@@ -6399,11 +6438,11 @@
       <c r="Y225" s="2"/>
       <c r="Z225" s="2"/>
     </row>
-    <row r="226">
-      <c r="A226" s="9"/>
-      <c r="B226" s="10"/>
-      <c r="C226" s="11"/>
-      <c r="D226" s="11"/>
+    <row r="226" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A226" s="6"/>
+      <c r="B226" s="5"/>
+      <c r="C226" s="7"/>
+      <c r="D226" s="7"/>
       <c r="G226" s="2"/>
       <c r="H226" s="2"/>
       <c r="I226" s="2"/>
@@ -6425,11 +6464,11 @@
       <c r="Y226" s="2"/>
       <c r="Z226" s="2"/>
     </row>
-    <row r="227">
-      <c r="A227" s="9"/>
-      <c r="B227" s="10"/>
-      <c r="C227" s="11"/>
-      <c r="D227" s="11"/>
+    <row r="227" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A227" s="6"/>
+      <c r="B227" s="5"/>
+      <c r="C227" s="7"/>
+      <c r="D227" s="7"/>
       <c r="G227" s="2"/>
       <c r="H227" s="2"/>
       <c r="I227" s="2"/>
@@ -6451,11 +6490,11 @@
       <c r="Y227" s="2"/>
       <c r="Z227" s="2"/>
     </row>
-    <row r="228">
-      <c r="A228" s="9"/>
-      <c r="B228" s="10"/>
-      <c r="C228" s="11"/>
-      <c r="D228" s="11"/>
+    <row r="228" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A228" s="6"/>
+      <c r="B228" s="5"/>
+      <c r="C228" s="7"/>
+      <c r="D228" s="7"/>
       <c r="G228" s="2"/>
       <c r="H228" s="2"/>
       <c r="I228" s="2"/>
@@ -6477,11 +6516,11 @@
       <c r="Y228" s="2"/>
       <c r="Z228" s="2"/>
     </row>
-    <row r="229">
-      <c r="A229" s="9"/>
-      <c r="B229" s="10"/>
-      <c r="C229" s="11"/>
-      <c r="D229" s="11"/>
+    <row r="229" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A229" s="6"/>
+      <c r="B229" s="5"/>
+      <c r="C229" s="7"/>
+      <c r="D229" s="7"/>
       <c r="G229" s="2"/>
       <c r="H229" s="2"/>
       <c r="I229" s="2"/>
@@ -6503,11 +6542,11 @@
       <c r="Y229" s="2"/>
       <c r="Z229" s="2"/>
     </row>
-    <row r="230">
-      <c r="A230" s="9"/>
-      <c r="B230" s="10"/>
-      <c r="C230" s="11"/>
-      <c r="D230" s="11"/>
+    <row r="230" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A230" s="6"/>
+      <c r="B230" s="5"/>
+      <c r="C230" s="7"/>
+      <c r="D230" s="7"/>
       <c r="G230" s="2"/>
       <c r="H230" s="2"/>
       <c r="I230" s="2"/>
@@ -6529,11 +6568,11 @@
       <c r="Y230" s="2"/>
       <c r="Z230" s="2"/>
     </row>
-    <row r="231">
-      <c r="A231" s="9"/>
-      <c r="B231" s="10"/>
-      <c r="C231" s="11"/>
-      <c r="D231" s="11"/>
+    <row r="231" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A231" s="6"/>
+      <c r="B231" s="5"/>
+      <c r="C231" s="7"/>
+      <c r="D231" s="7"/>
       <c r="G231" s="2"/>
       <c r="H231" s="2"/>
       <c r="I231" s="2"/>
@@ -6555,11 +6594,11 @@
       <c r="Y231" s="2"/>
       <c r="Z231" s="2"/>
     </row>
-    <row r="232">
-      <c r="A232" s="9"/>
-      <c r="B232" s="10"/>
-      <c r="C232" s="11"/>
-      <c r="D232" s="11"/>
+    <row r="232" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A232" s="6"/>
+      <c r="B232" s="5"/>
+      <c r="C232" s="7"/>
+      <c r="D232" s="7"/>
       <c r="G232" s="2"/>
       <c r="H232" s="2"/>
       <c r="I232" s="2"/>
@@ -6581,1372 +6620,1372 @@
       <c r="Y232" s="2"/>
       <c r="Z232" s="2"/>
     </row>
-    <row r="233">
-      <c r="B233" s="12"/>
-      <c r="C233" s="12"/>
-      <c r="D233" s="12"/>
-    </row>
-    <row r="234">
-      <c r="B234" s="12"/>
-      <c r="C234" s="12"/>
-      <c r="D234" s="12"/>
-    </row>
-    <row r="235">
-      <c r="B235" s="12"/>
-      <c r="C235" s="12"/>
-      <c r="D235" s="12"/>
-    </row>
-    <row r="236">
-      <c r="B236" s="12"/>
-      <c r="C236" s="12"/>
-      <c r="D236" s="12"/>
-    </row>
-    <row r="237">
-      <c r="B237" s="12"/>
-      <c r="C237" s="12"/>
-      <c r="D237" s="12"/>
-    </row>
-    <row r="238">
-      <c r="B238" s="12"/>
-      <c r="C238" s="12"/>
-      <c r="D238" s="12"/>
-    </row>
-    <row r="239">
-      <c r="B239" s="12"/>
-      <c r="C239" s="12"/>
-      <c r="D239" s="12"/>
-    </row>
-    <row r="240">
-      <c r="B240" s="12"/>
-      <c r="C240" s="12"/>
-      <c r="D240" s="12"/>
-    </row>
-    <row r="241">
-      <c r="B241" s="12"/>
-      <c r="C241" s="12"/>
-      <c r="D241" s="12"/>
-    </row>
-    <row r="242">
-      <c r="B242" s="12"/>
-      <c r="C242" s="12"/>
-      <c r="D242" s="12"/>
-    </row>
-    <row r="243">
-      <c r="B243" s="12"/>
-      <c r="C243" s="12"/>
-      <c r="D243" s="12"/>
-    </row>
-    <row r="244">
-      <c r="B244" s="12"/>
-      <c r="C244" s="12"/>
-      <c r="D244" s="12"/>
-    </row>
-    <row r="245">
-      <c r="B245" s="12"/>
-      <c r="C245" s="12"/>
-      <c r="D245" s="12"/>
-    </row>
-    <row r="246">
-      <c r="B246" s="12"/>
-      <c r="C246" s="12"/>
-      <c r="D246" s="12"/>
-    </row>
-    <row r="247">
-      <c r="B247" s="12"/>
-      <c r="C247" s="12"/>
-      <c r="D247" s="12"/>
-    </row>
-    <row r="248">
-      <c r="B248" s="12"/>
-      <c r="C248" s="12"/>
-      <c r="D248" s="12"/>
-    </row>
-    <row r="249">
-      <c r="B249" s="12"/>
-      <c r="C249" s="12"/>
-      <c r="D249" s="12"/>
-    </row>
-    <row r="250">
-      <c r="B250" s="12"/>
-      <c r="C250" s="12"/>
-      <c r="D250" s="12"/>
-    </row>
-    <row r="251">
-      <c r="B251" s="12"/>
-      <c r="C251" s="12"/>
-      <c r="D251" s="12"/>
-    </row>
-    <row r="252">
-      <c r="B252" s="12"/>
-      <c r="C252" s="12"/>
-      <c r="D252" s="12"/>
-    </row>
-    <row r="253">
-      <c r="B253" s="12"/>
-      <c r="C253" s="12"/>
-      <c r="D253" s="12"/>
-    </row>
-    <row r="254">
-      <c r="B254" s="12"/>
-      <c r="C254" s="12"/>
-      <c r="D254" s="12"/>
-    </row>
-    <row r="255">
-      <c r="B255" s="12"/>
-      <c r="C255" s="12"/>
-      <c r="D255" s="12"/>
-    </row>
-    <row r="256">
-      <c r="B256" s="12"/>
-      <c r="C256" s="12"/>
-      <c r="D256" s="12"/>
-    </row>
-    <row r="257">
-      <c r="B257" s="12"/>
-      <c r="C257" s="12"/>
-      <c r="D257" s="12"/>
-    </row>
-    <row r="258">
-      <c r="B258" s="12"/>
-      <c r="C258" s="12"/>
-      <c r="D258" s="12"/>
-    </row>
-    <row r="259">
-      <c r="B259" s="12"/>
-      <c r="C259" s="12"/>
-      <c r="D259" s="12"/>
-    </row>
-    <row r="260">
-      <c r="B260" s="12"/>
-      <c r="C260" s="12"/>
-      <c r="D260" s="12"/>
-    </row>
-    <row r="261">
-      <c r="B261" s="12"/>
-      <c r="C261" s="12"/>
-      <c r="D261" s="12"/>
-    </row>
-    <row r="262">
-      <c r="B262" s="12"/>
-      <c r="C262" s="12"/>
-      <c r="D262" s="12"/>
-    </row>
-    <row r="263">
-      <c r="B263" s="12"/>
-      <c r="C263" s="12"/>
-      <c r="D263" s="12"/>
-    </row>
-    <row r="264">
-      <c r="B264" s="12"/>
-      <c r="C264" s="12"/>
-      <c r="D264" s="12"/>
-    </row>
-    <row r="265">
-      <c r="B265" s="12"/>
-      <c r="C265" s="12"/>
-      <c r="D265" s="12"/>
-    </row>
-    <row r="266">
-      <c r="B266" s="12"/>
-      <c r="C266" s="12"/>
-      <c r="D266" s="12"/>
-    </row>
-    <row r="267">
-      <c r="B267" s="12"/>
-      <c r="C267" s="12"/>
-      <c r="D267" s="12"/>
-    </row>
-    <row r="268">
-      <c r="B268" s="12"/>
-      <c r="C268" s="12"/>
-      <c r="D268" s="12"/>
-    </row>
-    <row r="269">
-      <c r="B269" s="12"/>
-      <c r="C269" s="12"/>
-      <c r="D269" s="12"/>
-    </row>
-    <row r="270">
-      <c r="B270" s="12"/>
-      <c r="C270" s="12"/>
-      <c r="D270" s="12"/>
-    </row>
-    <row r="271">
-      <c r="B271" s="12"/>
-      <c r="C271" s="12"/>
-      <c r="D271" s="12"/>
-    </row>
-    <row r="272">
-      <c r="B272" s="12"/>
-      <c r="C272" s="12"/>
-      <c r="D272" s="12"/>
-    </row>
-    <row r="273">
-      <c r="B273" s="12"/>
-      <c r="C273" s="12"/>
-      <c r="D273" s="12"/>
-    </row>
-    <row r="274">
-      <c r="B274" s="12"/>
-      <c r="C274" s="12"/>
-      <c r="D274" s="12"/>
-    </row>
-    <row r="275">
-      <c r="B275" s="12"/>
-      <c r="C275" s="12"/>
-      <c r="D275" s="12"/>
-    </row>
-    <row r="276">
-      <c r="B276" s="12"/>
-      <c r="C276" s="12"/>
-      <c r="D276" s="12"/>
-    </row>
-    <row r="277">
-      <c r="B277" s="12"/>
-      <c r="C277" s="12"/>
-      <c r="D277" s="12"/>
-    </row>
-    <row r="278">
-      <c r="B278" s="12"/>
-      <c r="C278" s="12"/>
-      <c r="D278" s="12"/>
-    </row>
-    <row r="279">
-      <c r="B279" s="12"/>
-      <c r="C279" s="12"/>
-      <c r="D279" s="12"/>
-    </row>
-    <row r="280">
-      <c r="B280" s="12"/>
-      <c r="C280" s="12"/>
-      <c r="D280" s="12"/>
-    </row>
-    <row r="281">
-      <c r="B281" s="12"/>
-      <c r="C281" s="12"/>
-      <c r="D281" s="12"/>
-    </row>
-    <row r="282">
-      <c r="B282" s="12"/>
-      <c r="C282" s="12"/>
-      <c r="D282" s="12"/>
-    </row>
-    <row r="283">
-      <c r="B283" s="12"/>
-      <c r="C283" s="12"/>
-      <c r="D283" s="12"/>
-    </row>
-    <row r="284">
-      <c r="B284" s="12"/>
-      <c r="C284" s="12"/>
-      <c r="D284" s="12"/>
-    </row>
-    <row r="285">
-      <c r="B285" s="12"/>
-      <c r="C285" s="12"/>
-      <c r="D285" s="12"/>
-    </row>
-    <row r="286">
-      <c r="B286" s="12"/>
-      <c r="C286" s="12"/>
-      <c r="D286" s="12"/>
-    </row>
-    <row r="287">
-      <c r="B287" s="12"/>
-      <c r="C287" s="12"/>
-      <c r="D287" s="12"/>
-    </row>
-    <row r="288">
-      <c r="B288" s="12"/>
-      <c r="C288" s="12"/>
-      <c r="D288" s="12"/>
-    </row>
-    <row r="289">
-      <c r="B289" s="12"/>
-      <c r="C289" s="12"/>
-      <c r="D289" s="12"/>
-    </row>
-    <row r="290">
-      <c r="B290" s="12"/>
-      <c r="C290" s="12"/>
-      <c r="D290" s="12"/>
-    </row>
-    <row r="291">
-      <c r="B291" s="12"/>
-      <c r="C291" s="12"/>
-      <c r="D291" s="12"/>
-    </row>
-    <row r="292">
-      <c r="B292" s="12"/>
-      <c r="C292" s="12"/>
-      <c r="D292" s="12"/>
-    </row>
-    <row r="293">
-      <c r="B293" s="12"/>
-      <c r="C293" s="12"/>
-      <c r="D293" s="12"/>
-    </row>
-    <row r="294">
-      <c r="B294" s="12"/>
-      <c r="C294" s="12"/>
-      <c r="D294" s="12"/>
-    </row>
-    <row r="295">
-      <c r="B295" s="12"/>
-      <c r="C295" s="12"/>
-      <c r="D295" s="12"/>
-    </row>
-    <row r="296">
-      <c r="B296" s="12"/>
-      <c r="C296" s="12"/>
-      <c r="D296" s="12"/>
-    </row>
-    <row r="297">
-      <c r="B297" s="12"/>
-      <c r="C297" s="12"/>
-      <c r="D297" s="12"/>
-    </row>
-    <row r="298">
-      <c r="B298" s="12"/>
-      <c r="C298" s="12"/>
-      <c r="D298" s="12"/>
-    </row>
-    <row r="299">
-      <c r="B299" s="12"/>
-      <c r="C299" s="12"/>
-      <c r="D299" s="12"/>
-    </row>
-    <row r="300">
-      <c r="B300" s="12"/>
-      <c r="C300" s="12"/>
-      <c r="D300" s="12"/>
-    </row>
-    <row r="301">
-      <c r="B301" s="12"/>
-      <c r="C301" s="12"/>
-      <c r="D301" s="12"/>
-    </row>
-    <row r="302">
-      <c r="B302" s="12"/>
-      <c r="C302" s="12"/>
-      <c r="D302" s="12"/>
-    </row>
-    <row r="303">
-      <c r="B303" s="12"/>
-      <c r="C303" s="12"/>
-      <c r="D303" s="12"/>
-    </row>
-    <row r="304">
-      <c r="B304" s="12"/>
-      <c r="C304" s="12"/>
-      <c r="D304" s="12"/>
-    </row>
-    <row r="305">
-      <c r="B305" s="12"/>
-      <c r="C305" s="12"/>
-      <c r="D305" s="12"/>
-    </row>
-    <row r="306">
-      <c r="B306" s="12"/>
-      <c r="C306" s="12"/>
-      <c r="D306" s="12"/>
-    </row>
-    <row r="307">
-      <c r="B307" s="12"/>
-      <c r="C307" s="12"/>
-      <c r="D307" s="12"/>
-    </row>
-    <row r="308">
-      <c r="B308" s="12"/>
-      <c r="C308" s="12"/>
-      <c r="D308" s="12"/>
-    </row>
-    <row r="309">
-      <c r="B309" s="12"/>
-      <c r="C309" s="12"/>
-      <c r="D309" s="12"/>
-    </row>
-    <row r="310">
-      <c r="B310" s="12"/>
-      <c r="C310" s="12"/>
-      <c r="D310" s="12"/>
-    </row>
-    <row r="311">
-      <c r="B311" s="12"/>
-      <c r="C311" s="12"/>
-      <c r="D311" s="12"/>
-    </row>
-    <row r="312">
-      <c r="B312" s="12"/>
-      <c r="C312" s="12"/>
-      <c r="D312" s="12"/>
-    </row>
-    <row r="313">
-      <c r="B313" s="12"/>
-      <c r="C313" s="12"/>
-      <c r="D313" s="12"/>
-    </row>
-    <row r="314">
-      <c r="B314" s="12"/>
-      <c r="C314" s="12"/>
-      <c r="D314" s="12"/>
-    </row>
-    <row r="315">
-      <c r="B315" s="12"/>
-      <c r="C315" s="12"/>
-      <c r="D315" s="12"/>
-    </row>
-    <row r="316">
-      <c r="B316" s="12"/>
-      <c r="C316" s="12"/>
-      <c r="D316" s="12"/>
-    </row>
-    <row r="317">
-      <c r="B317" s="12"/>
-      <c r="C317" s="12"/>
-      <c r="D317" s="12"/>
-    </row>
-    <row r="318">
-      <c r="B318" s="12"/>
-      <c r="C318" s="12"/>
-      <c r="D318" s="12"/>
-    </row>
-    <row r="319">
-      <c r="B319" s="12"/>
-      <c r="C319" s="12"/>
-      <c r="D319" s="12"/>
-    </row>
-    <row r="320">
-      <c r="B320" s="12"/>
-      <c r="C320" s="12"/>
-      <c r="D320" s="12"/>
-    </row>
-    <row r="321">
-      <c r="B321" s="12"/>
-      <c r="C321" s="12"/>
-      <c r="D321" s="12"/>
-    </row>
-    <row r="322">
-      <c r="B322" s="12"/>
-      <c r="C322" s="12"/>
-      <c r="D322" s="12"/>
-    </row>
-    <row r="323">
-      <c r="B323" s="12"/>
-      <c r="C323" s="12"/>
-      <c r="D323" s="12"/>
-    </row>
-    <row r="324">
-      <c r="B324" s="12"/>
-      <c r="C324" s="12"/>
-      <c r="D324" s="12"/>
-    </row>
-    <row r="325">
-      <c r="B325" s="12"/>
-      <c r="C325" s="12"/>
-      <c r="D325" s="12"/>
-    </row>
-    <row r="326">
-      <c r="B326" s="12"/>
-      <c r="C326" s="12"/>
-      <c r="D326" s="12"/>
-    </row>
-    <row r="327">
-      <c r="B327" s="12"/>
-      <c r="C327" s="12"/>
-      <c r="D327" s="12"/>
-    </row>
-    <row r="328">
-      <c r="B328" s="12"/>
-      <c r="C328" s="12"/>
-      <c r="D328" s="12"/>
-    </row>
-    <row r="329">
-      <c r="B329" s="12"/>
-      <c r="C329" s="12"/>
-      <c r="D329" s="12"/>
-    </row>
-    <row r="330">
-      <c r="B330" s="12"/>
-      <c r="C330" s="12"/>
-      <c r="D330" s="12"/>
-    </row>
-    <row r="331">
-      <c r="B331" s="12"/>
-      <c r="C331" s="12"/>
-      <c r="D331" s="12"/>
-    </row>
-    <row r="332">
-      <c r="B332" s="12"/>
-      <c r="C332" s="12"/>
-      <c r="D332" s="12"/>
-    </row>
-    <row r="333">
-      <c r="B333" s="12"/>
-      <c r="C333" s="12"/>
-      <c r="D333" s="12"/>
-    </row>
-    <row r="334">
-      <c r="B334" s="12"/>
-      <c r="C334" s="12"/>
-      <c r="D334" s="12"/>
-    </row>
-    <row r="335">
-      <c r="B335" s="12"/>
-      <c r="C335" s="12"/>
-      <c r="D335" s="12"/>
-    </row>
-    <row r="336">
-      <c r="B336" s="12"/>
-      <c r="C336" s="12"/>
-      <c r="D336" s="12"/>
-    </row>
-    <row r="337">
-      <c r="B337" s="12"/>
-      <c r="C337" s="12"/>
-      <c r="D337" s="12"/>
-    </row>
-    <row r="338">
-      <c r="B338" s="12"/>
-      <c r="C338" s="12"/>
-      <c r="D338" s="12"/>
-    </row>
-    <row r="339">
-      <c r="B339" s="12"/>
-      <c r="C339" s="12"/>
-      <c r="D339" s="12"/>
-    </row>
-    <row r="340">
-      <c r="B340" s="12"/>
-      <c r="C340" s="12"/>
-      <c r="D340" s="12"/>
-    </row>
-    <row r="341">
-      <c r="B341" s="12"/>
-      <c r="C341" s="12"/>
-      <c r="D341" s="12"/>
-    </row>
-    <row r="342">
-      <c r="B342" s="12"/>
-      <c r="C342" s="12"/>
-      <c r="D342" s="12"/>
-    </row>
-    <row r="343">
-      <c r="B343" s="12"/>
-      <c r="C343" s="12"/>
-      <c r="D343" s="12"/>
-    </row>
-    <row r="344">
-      <c r="B344" s="12"/>
-      <c r="C344" s="12"/>
-      <c r="D344" s="12"/>
-    </row>
-    <row r="345">
-      <c r="B345" s="12"/>
-      <c r="C345" s="12"/>
-      <c r="D345" s="12"/>
-    </row>
-    <row r="346">
-      <c r="B346" s="12"/>
-      <c r="C346" s="12"/>
-      <c r="D346" s="12"/>
-    </row>
-    <row r="347">
-      <c r="B347" s="12"/>
-      <c r="C347" s="12"/>
-      <c r="D347" s="12"/>
-    </row>
-    <row r="348">
-      <c r="B348" s="12"/>
-      <c r="C348" s="12"/>
-      <c r="D348" s="12"/>
-    </row>
-    <row r="349">
-      <c r="B349" s="12"/>
-      <c r="C349" s="12"/>
-      <c r="D349" s="12"/>
-    </row>
-    <row r="350">
-      <c r="B350" s="12"/>
-      <c r="C350" s="12"/>
-      <c r="D350" s="12"/>
-    </row>
-    <row r="351">
-      <c r="B351" s="12"/>
-      <c r="C351" s="12"/>
-      <c r="D351" s="12"/>
-    </row>
-    <row r="352">
-      <c r="B352" s="12"/>
-      <c r="C352" s="12"/>
-      <c r="D352" s="12"/>
-    </row>
-    <row r="353">
-      <c r="B353" s="12"/>
-      <c r="C353" s="12"/>
-      <c r="D353" s="12"/>
-    </row>
-    <row r="354">
-      <c r="B354" s="12"/>
-      <c r="C354" s="12"/>
-      <c r="D354" s="12"/>
-    </row>
-    <row r="355">
-      <c r="B355" s="12"/>
-      <c r="C355" s="12"/>
-      <c r="D355" s="12"/>
-    </row>
-    <row r="356">
-      <c r="B356" s="12"/>
-      <c r="C356" s="12"/>
-      <c r="D356" s="12"/>
-    </row>
-    <row r="357">
-      <c r="B357" s="12"/>
-      <c r="C357" s="12"/>
-      <c r="D357" s="12"/>
-    </row>
-    <row r="358">
-      <c r="B358" s="12"/>
-      <c r="C358" s="12"/>
-      <c r="D358" s="12"/>
-    </row>
-    <row r="359">
-      <c r="B359" s="12"/>
-      <c r="C359" s="12"/>
-      <c r="D359" s="12"/>
-    </row>
-    <row r="360">
-      <c r="B360" s="12"/>
-      <c r="C360" s="12"/>
-      <c r="D360" s="12"/>
-    </row>
-    <row r="361">
-      <c r="B361" s="12"/>
-      <c r="C361" s="12"/>
-      <c r="D361" s="12"/>
-    </row>
-    <row r="362">
-      <c r="B362" s="12"/>
-      <c r="C362" s="12"/>
-      <c r="D362" s="12"/>
-    </row>
-    <row r="363">
-      <c r="B363" s="12"/>
-      <c r="C363" s="12"/>
-      <c r="D363" s="12"/>
-    </row>
-    <row r="364">
-      <c r="B364" s="12"/>
-      <c r="C364" s="12"/>
-      <c r="D364" s="12"/>
-    </row>
-    <row r="365">
-      <c r="B365" s="12"/>
-      <c r="C365" s="12"/>
-      <c r="D365" s="12"/>
-    </row>
-    <row r="366">
-      <c r="B366" s="12"/>
-      <c r="C366" s="12"/>
-      <c r="D366" s="12"/>
-    </row>
-    <row r="367">
-      <c r="B367" s="12"/>
-      <c r="C367" s="12"/>
-      <c r="D367" s="12"/>
-    </row>
-    <row r="368">
-      <c r="B368" s="12"/>
-      <c r="C368" s="12"/>
-      <c r="D368" s="12"/>
-    </row>
-    <row r="369">
-      <c r="B369" s="12"/>
-      <c r="C369" s="12"/>
-      <c r="D369" s="12"/>
-    </row>
-    <row r="370">
-      <c r="B370" s="12"/>
-      <c r="C370" s="12"/>
-      <c r="D370" s="12"/>
-    </row>
-    <row r="371">
-      <c r="B371" s="12"/>
-      <c r="C371" s="12"/>
-      <c r="D371" s="12"/>
-    </row>
-    <row r="372">
-      <c r="B372" s="12"/>
-      <c r="C372" s="12"/>
-      <c r="D372" s="12"/>
-    </row>
-    <row r="373">
-      <c r="B373" s="12"/>
-      <c r="C373" s="12"/>
-      <c r="D373" s="12"/>
-    </row>
-    <row r="374">
-      <c r="B374" s="12"/>
-      <c r="C374" s="12"/>
-      <c r="D374" s="12"/>
-    </row>
-    <row r="375">
-      <c r="B375" s="12"/>
-      <c r="C375" s="12"/>
-      <c r="D375" s="12"/>
-    </row>
-    <row r="376">
-      <c r="B376" s="12"/>
-      <c r="C376" s="12"/>
-      <c r="D376" s="12"/>
-    </row>
-    <row r="377">
-      <c r="B377" s="12"/>
-      <c r="C377" s="12"/>
-      <c r="D377" s="12"/>
-    </row>
-    <row r="378">
-      <c r="B378" s="12"/>
-      <c r="C378" s="12"/>
-      <c r="D378" s="12"/>
-    </row>
-    <row r="379">
-      <c r="B379" s="12"/>
-      <c r="C379" s="12"/>
-      <c r="D379" s="12"/>
-    </row>
-    <row r="380">
-      <c r="B380" s="12"/>
-      <c r="C380" s="12"/>
-      <c r="D380" s="12"/>
-    </row>
-    <row r="381">
-      <c r="B381" s="12"/>
-      <c r="C381" s="12"/>
-      <c r="D381" s="12"/>
-    </row>
-    <row r="382">
-      <c r="B382" s="12"/>
-      <c r="C382" s="12"/>
-      <c r="D382" s="12"/>
-    </row>
-    <row r="383">
-      <c r="B383" s="12"/>
-      <c r="C383" s="12"/>
-      <c r="D383" s="12"/>
-    </row>
-    <row r="384">
-      <c r="B384" s="12"/>
-      <c r="C384" s="12"/>
-      <c r="D384" s="12"/>
-    </row>
-    <row r="385">
-      <c r="B385" s="12"/>
-      <c r="C385" s="12"/>
-      <c r="D385" s="12"/>
-    </row>
-    <row r="386">
-      <c r="B386" s="12"/>
-      <c r="C386" s="12"/>
-      <c r="D386" s="12"/>
-    </row>
-    <row r="387">
-      <c r="B387" s="12"/>
-      <c r="C387" s="12"/>
-      <c r="D387" s="12"/>
-    </row>
-    <row r="388">
-      <c r="B388" s="12"/>
-      <c r="C388" s="12"/>
-      <c r="D388" s="12"/>
-    </row>
-    <row r="389">
-      <c r="B389" s="12"/>
-      <c r="C389" s="12"/>
-      <c r="D389" s="12"/>
-    </row>
-    <row r="390">
-      <c r="B390" s="12"/>
-      <c r="C390" s="12"/>
-      <c r="D390" s="12"/>
-    </row>
-    <row r="391">
-      <c r="B391" s="12"/>
-      <c r="C391" s="12"/>
-      <c r="D391" s="12"/>
-    </row>
-    <row r="392">
-      <c r="B392" s="12"/>
-      <c r="C392" s="12"/>
-      <c r="D392" s="12"/>
-    </row>
-    <row r="393">
-      <c r="B393" s="12"/>
-      <c r="C393" s="12"/>
-      <c r="D393" s="12"/>
-    </row>
-    <row r="394">
-      <c r="B394" s="12"/>
-      <c r="C394" s="12"/>
-      <c r="D394" s="12"/>
-    </row>
-    <row r="395">
-      <c r="B395" s="12"/>
-      <c r="C395" s="12"/>
-      <c r="D395" s="12"/>
-    </row>
-    <row r="396">
-      <c r="B396" s="12"/>
-      <c r="C396" s="12"/>
-      <c r="D396" s="12"/>
-    </row>
-    <row r="397">
-      <c r="B397" s="12"/>
-      <c r="C397" s="12"/>
-      <c r="D397" s="12"/>
-    </row>
-    <row r="398">
-      <c r="B398" s="12"/>
-      <c r="C398" s="12"/>
-      <c r="D398" s="12"/>
-    </row>
-    <row r="399">
-      <c r="B399" s="12"/>
-      <c r="C399" s="12"/>
-      <c r="D399" s="12"/>
-    </row>
-    <row r="400">
-      <c r="B400" s="12"/>
-      <c r="C400" s="12"/>
-      <c r="D400" s="12"/>
-    </row>
-    <row r="401">
-      <c r="B401" s="12"/>
-      <c r="C401" s="12"/>
-      <c r="D401" s="12"/>
-    </row>
-    <row r="402">
-      <c r="B402" s="12"/>
-      <c r="C402" s="12"/>
-      <c r="D402" s="12"/>
-    </row>
-    <row r="403">
-      <c r="B403" s="12"/>
-      <c r="C403" s="12"/>
-      <c r="D403" s="12"/>
-    </row>
-    <row r="404">
-      <c r="B404" s="12"/>
-      <c r="C404" s="12"/>
-      <c r="D404" s="12"/>
-    </row>
-    <row r="405">
-      <c r="B405" s="12"/>
-      <c r="C405" s="12"/>
-      <c r="D405" s="12"/>
-    </row>
-    <row r="406">
-      <c r="B406" s="12"/>
-      <c r="C406" s="12"/>
-      <c r="D406" s="12"/>
-    </row>
-    <row r="407">
-      <c r="B407" s="12"/>
-      <c r="C407" s="12"/>
-      <c r="D407" s="12"/>
-    </row>
-    <row r="408">
-      <c r="B408" s="12"/>
-      <c r="C408" s="12"/>
-      <c r="D408" s="12"/>
-    </row>
-    <row r="409">
-      <c r="B409" s="12"/>
-      <c r="C409" s="12"/>
-      <c r="D409" s="12"/>
-    </row>
-    <row r="410">
-      <c r="B410" s="12"/>
-      <c r="C410" s="12"/>
-      <c r="D410" s="12"/>
-    </row>
-    <row r="411">
-      <c r="B411" s="12"/>
-      <c r="C411" s="12"/>
-      <c r="D411" s="12"/>
-    </row>
-    <row r="412">
-      <c r="B412" s="12"/>
-      <c r="C412" s="12"/>
-      <c r="D412" s="12"/>
-    </row>
-    <row r="413">
-      <c r="B413" s="12"/>
-      <c r="C413" s="12"/>
-      <c r="D413" s="12"/>
-    </row>
-    <row r="414">
-      <c r="B414" s="12"/>
-      <c r="C414" s="12"/>
-      <c r="D414" s="12"/>
-    </row>
-    <row r="415">
-      <c r="B415" s="12"/>
-      <c r="C415" s="12"/>
-      <c r="D415" s="12"/>
-    </row>
-    <row r="416">
-      <c r="B416" s="12"/>
-      <c r="C416" s="12"/>
-      <c r="D416" s="12"/>
-    </row>
-    <row r="417">
-      <c r="B417" s="12"/>
-      <c r="C417" s="12"/>
-      <c r="D417" s="12"/>
-    </row>
-    <row r="418">
-      <c r="B418" s="12"/>
-      <c r="C418" s="12"/>
-      <c r="D418" s="12"/>
-    </row>
-    <row r="419">
-      <c r="B419" s="12"/>
-      <c r="C419" s="12"/>
-      <c r="D419" s="12"/>
-    </row>
-    <row r="420">
-      <c r="B420" s="12"/>
-      <c r="C420" s="12"/>
-      <c r="D420" s="12"/>
-    </row>
-    <row r="421">
-      <c r="B421" s="12"/>
-      <c r="C421" s="12"/>
-      <c r="D421" s="12"/>
-    </row>
-    <row r="422">
-      <c r="B422" s="12"/>
-      <c r="C422" s="12"/>
-      <c r="D422" s="12"/>
-    </row>
-    <row r="423">
-      <c r="B423" s="12"/>
-      <c r="C423" s="12"/>
-      <c r="D423" s="12"/>
-    </row>
-    <row r="424">
-      <c r="B424" s="12"/>
-      <c r="C424" s="12"/>
-      <c r="D424" s="12"/>
-    </row>
-    <row r="425">
-      <c r="B425" s="12"/>
-      <c r="C425" s="12"/>
-      <c r="D425" s="12"/>
-    </row>
-    <row r="426">
-      <c r="B426" s="12"/>
-      <c r="C426" s="12"/>
-      <c r="D426" s="12"/>
-    </row>
-    <row r="427">
-      <c r="B427" s="12"/>
-      <c r="C427" s="12"/>
-      <c r="D427" s="12"/>
-    </row>
-    <row r="428">
-      <c r="B428" s="12"/>
-      <c r="C428" s="12"/>
-      <c r="D428" s="12"/>
-    </row>
-    <row r="429">
-      <c r="B429" s="12"/>
-      <c r="C429" s="12"/>
-      <c r="D429" s="12"/>
-    </row>
-    <row r="430">
-      <c r="B430" s="12"/>
-      <c r="C430" s="12"/>
-    </row>
-    <row r="431">
-      <c r="B431" s="12"/>
-      <c r="C431" s="12"/>
-    </row>
-    <row r="432">
-      <c r="B432" s="12"/>
-      <c r="C432" s="12"/>
-    </row>
-    <row r="433">
-      <c r="B433" s="12"/>
-      <c r="C433" s="12"/>
-    </row>
-    <row r="434">
-      <c r="B434" s="12"/>
-      <c r="C434" s="12"/>
-    </row>
-    <row r="435">
-      <c r="B435" s="12"/>
-      <c r="C435" s="12"/>
-    </row>
-    <row r="436">
-      <c r="B436" s="12"/>
-      <c r="C436" s="12"/>
-    </row>
-    <row r="437">
-      <c r="B437" s="12"/>
-      <c r="C437" s="12"/>
-    </row>
-    <row r="438">
-      <c r="B438" s="12"/>
-      <c r="C438" s="12"/>
-    </row>
-    <row r="439">
-      <c r="B439" s="12"/>
-      <c r="C439" s="12"/>
-    </row>
-    <row r="440">
-      <c r="B440" s="12"/>
-      <c r="C440" s="12"/>
-    </row>
-    <row r="441">
-      <c r="B441" s="12"/>
-      <c r="C441" s="12"/>
-    </row>
-    <row r="442">
-      <c r="B442" s="12"/>
-      <c r="C442" s="12"/>
-    </row>
-    <row r="443">
-      <c r="B443" s="12"/>
-      <c r="C443" s="12"/>
-    </row>
-    <row r="444">
-      <c r="B444" s="12"/>
-      <c r="C444" s="12"/>
-    </row>
-    <row r="445">
-      <c r="B445" s="12"/>
-      <c r="C445" s="12"/>
-    </row>
-    <row r="446">
-      <c r="B446" s="12"/>
-      <c r="C446" s="12"/>
-    </row>
-    <row r="447">
-      <c r="B447" s="12"/>
-      <c r="C447" s="12"/>
-    </row>
-    <row r="448">
-      <c r="B448" s="12"/>
-      <c r="C448" s="12"/>
-    </row>
-    <row r="449">
-      <c r="B449" s="12"/>
-      <c r="C449" s="12"/>
-    </row>
-    <row r="450">
-      <c r="B450" s="12"/>
-      <c r="C450" s="12"/>
-    </row>
-    <row r="451">
-      <c r="B451" s="12"/>
-      <c r="C451" s="12"/>
-    </row>
-    <row r="452">
-      <c r="B452" s="12"/>
-      <c r="C452" s="12"/>
-    </row>
-    <row r="453">
-      <c r="B453" s="12"/>
-      <c r="C453" s="12"/>
-    </row>
-    <row r="454">
-      <c r="B454" s="12"/>
-      <c r="C454" s="12"/>
-    </row>
-    <row r="455">
-      <c r="B455" s="12"/>
-      <c r="C455" s="12"/>
-    </row>
-    <row r="456">
-      <c r="B456" s="12"/>
-      <c r="C456" s="12"/>
-    </row>
-    <row r="457">
-      <c r="B457" s="12"/>
-      <c r="C457" s="12"/>
-    </row>
-    <row r="458">
-      <c r="B458" s="12"/>
-      <c r="C458" s="12"/>
-    </row>
-    <row r="459">
-      <c r="B459" s="12"/>
-      <c r="C459" s="12"/>
-    </row>
-    <row r="460">
-      <c r="B460" s="12"/>
-      <c r="C460" s="12"/>
-    </row>
-    <row r="461">
-      <c r="B461" s="12"/>
-      <c r="C461" s="12"/>
-    </row>
-    <row r="462">
-      <c r="B462" s="12"/>
-      <c r="C462" s="12"/>
-    </row>
-    <row r="463">
-      <c r="B463" s="12"/>
-      <c r="C463" s="12"/>
-    </row>
-    <row r="464">
-      <c r="B464" s="12"/>
-      <c r="C464" s="12"/>
-    </row>
-    <row r="465">
-      <c r="B465" s="12"/>
-      <c r="C465" s="12"/>
-    </row>
-    <row r="466">
-      <c r="B466" s="12"/>
-      <c r="C466" s="12"/>
-    </row>
-    <row r="467">
-      <c r="B467" s="12"/>
-      <c r="C467" s="12"/>
-    </row>
-    <row r="468">
-      <c r="B468" s="12"/>
-      <c r="C468" s="12"/>
-    </row>
-    <row r="469">
-      <c r="B469" s="12"/>
-      <c r="C469" s="12"/>
-    </row>
-    <row r="470">
-      <c r="B470" s="12"/>
-      <c r="C470" s="12"/>
-    </row>
-    <row r="471">
-      <c r="B471" s="12"/>
-      <c r="C471" s="12"/>
-    </row>
-    <row r="472">
-      <c r="B472" s="12"/>
-      <c r="C472" s="12"/>
-    </row>
-    <row r="473">
-      <c r="B473" s="12"/>
-      <c r="C473" s="12"/>
-    </row>
-    <row r="474">
-      <c r="B474" s="12"/>
-      <c r="C474" s="12"/>
-    </row>
-    <row r="475">
-      <c r="B475" s="12"/>
-      <c r="C475" s="12"/>
-    </row>
-    <row r="476">
-      <c r="B476" s="12"/>
-      <c r="C476" s="12"/>
-    </row>
-    <row r="477">
-      <c r="B477" s="12"/>
-      <c r="C477" s="12"/>
-    </row>
-    <row r="478">
-      <c r="B478" s="12"/>
-      <c r="C478" s="12"/>
-    </row>
-    <row r="479">
-      <c r="B479" s="12"/>
-      <c r="C479" s="12"/>
-    </row>
-    <row r="480">
-      <c r="B480" s="12"/>
-      <c r="C480" s="12"/>
-    </row>
-    <row r="481">
-      <c r="B481" s="12"/>
-      <c r="C481" s="12"/>
-    </row>
-    <row r="482">
-      <c r="B482" s="12"/>
-      <c r="C482" s="12"/>
-    </row>
-    <row r="483">
-      <c r="B483" s="12"/>
-      <c r="C483" s="12"/>
-    </row>
-    <row r="484">
-      <c r="B484" s="12"/>
-      <c r="C484" s="12"/>
-    </row>
-    <row r="485">
-      <c r="B485" s="12"/>
-      <c r="C485" s="12"/>
-    </row>
-    <row r="486">
-      <c r="B486" s="12"/>
-      <c r="C486" s="12"/>
-    </row>
-    <row r="487">
-      <c r="B487" s="12"/>
-      <c r="C487" s="12"/>
-    </row>
-    <row r="488">
-      <c r="B488" s="12"/>
-      <c r="C488" s="12"/>
-    </row>
-    <row r="489">
-      <c r="B489" s="12"/>
-      <c r="C489" s="12"/>
-    </row>
-    <row r="490">
-      <c r="B490" s="12"/>
-      <c r="C490" s="12"/>
-    </row>
-    <row r="491">
-      <c r="B491" s="12"/>
-      <c r="C491" s="12"/>
-    </row>
-    <row r="492">
-      <c r="B492" s="12"/>
-      <c r="C492" s="12"/>
-    </row>
-    <row r="493">
-      <c r="B493" s="12"/>
-      <c r="C493" s="12"/>
-    </row>
-    <row r="494">
-      <c r="B494" s="12"/>
-      <c r="C494" s="12"/>
-    </row>
-    <row r="495">
-      <c r="B495" s="12"/>
-      <c r="C495" s="12"/>
-    </row>
-    <row r="496">
-      <c r="B496" s="12"/>
-      <c r="C496" s="12"/>
-    </row>
-    <row r="497">
-      <c r="B497" s="12"/>
-      <c r="C497" s="12"/>
-    </row>
-    <row r="498">
-      <c r="B498" s="12"/>
-      <c r="C498" s="12"/>
-    </row>
-    <row r="499">
-      <c r="B499" s="12"/>
-      <c r="C499" s="12"/>
-    </row>
-    <row r="500">
-      <c r="B500" s="12"/>
-      <c r="C500" s="12"/>
-    </row>
-    <row r="501">
-      <c r="B501" s="12"/>
-      <c r="C501" s="12"/>
-    </row>
-    <row r="502">
-      <c r="B502" s="12"/>
-      <c r="C502" s="12"/>
-    </row>
-    <row r="503">
-      <c r="B503" s="12"/>
-      <c r="C503" s="12"/>
-    </row>
-    <row r="504">
-      <c r="B504" s="12"/>
-      <c r="C504" s="12"/>
-    </row>
-    <row r="505">
-      <c r="B505" s="12"/>
-      <c r="C505" s="12"/>
-    </row>
-    <row r="506">
-      <c r="B506" s="12"/>
-      <c r="C506" s="12"/>
-    </row>
-    <row r="507">
-      <c r="B507" s="12"/>
-      <c r="C507" s="12"/>
-    </row>
-    <row r="508">
-      <c r="B508" s="12"/>
-      <c r="C508" s="12"/>
-    </row>
-    <row r="509">
-      <c r="B509" s="12"/>
-      <c r="C509" s="12"/>
-    </row>
-    <row r="510">
-      <c r="B510" s="12"/>
-      <c r="C510" s="12"/>
-    </row>
-    <row r="511">
-      <c r="B511" s="12"/>
-      <c r="C511" s="12"/>
-    </row>
-    <row r="512">
-      <c r="B512" s="12"/>
-      <c r="C512" s="12"/>
-    </row>
-    <row r="513">
-      <c r="B513" s="12"/>
-      <c r="C513" s="12"/>
-    </row>
-    <row r="514">
-      <c r="B514" s="12"/>
-      <c r="C514" s="12"/>
-    </row>
-    <row r="515">
-      <c r="B515" s="12"/>
-      <c r="C515" s="12"/>
-    </row>
-    <row r="516">
-      <c r="B516" s="12"/>
-      <c r="C516" s="12"/>
-    </row>
-    <row r="517">
-      <c r="B517" s="12"/>
-      <c r="C517" s="12"/>
-    </row>
-    <row r="518">
-      <c r="B518" s="12"/>
-      <c r="C518" s="12"/>
-    </row>
-    <row r="519">
-      <c r="B519" s="12"/>
-      <c r="C519" s="12"/>
-    </row>
-    <row r="520">
-      <c r="B520" s="12"/>
-      <c r="C520" s="12"/>
-    </row>
-    <row r="521">
-      <c r="B521" s="12"/>
-      <c r="C521" s="12"/>
-    </row>
-    <row r="522">
-      <c r="B522" s="12"/>
-      <c r="C522" s="12"/>
-    </row>
-    <row r="523">
-      <c r="B523" s="12"/>
-      <c r="C523" s="12"/>
-    </row>
-    <row r="524">
-      <c r="B524" s="12"/>
-      <c r="C524" s="12"/>
+    <row r="233" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="B233" s="9"/>
+      <c r="C233" s="9"/>
+      <c r="D233" s="9"/>
+    </row>
+    <row r="234" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="B234" s="9"/>
+      <c r="C234" s="9"/>
+      <c r="D234" s="9"/>
+    </row>
+    <row r="235" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="B235" s="9"/>
+      <c r="C235" s="9"/>
+      <c r="D235" s="9"/>
+    </row>
+    <row r="236" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="B236" s="9"/>
+      <c r="C236" s="9"/>
+      <c r="D236" s="9"/>
+    </row>
+    <row r="237" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="B237" s="9"/>
+      <c r="C237" s="9"/>
+      <c r="D237" s="9"/>
+    </row>
+    <row r="238" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="B238" s="9"/>
+      <c r="C238" s="9"/>
+      <c r="D238" s="9"/>
+    </row>
+    <row r="239" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="B239" s="9"/>
+      <c r="C239" s="9"/>
+      <c r="D239" s="9"/>
+    </row>
+    <row r="240" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="B240" s="9"/>
+      <c r="C240" s="9"/>
+      <c r="D240" s="9"/>
+    </row>
+    <row r="241" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B241" s="9"/>
+      <c r="C241" s="9"/>
+      <c r="D241" s="9"/>
+    </row>
+    <row r="242" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B242" s="9"/>
+      <c r="C242" s="9"/>
+      <c r="D242" s="9"/>
+    </row>
+    <row r="243" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B243" s="9"/>
+      <c r="C243" s="9"/>
+      <c r="D243" s="9"/>
+    </row>
+    <row r="244" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B244" s="9"/>
+      <c r="C244" s="9"/>
+      <c r="D244" s="9"/>
+    </row>
+    <row r="245" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B245" s="9"/>
+      <c r="C245" s="9"/>
+      <c r="D245" s="9"/>
+    </row>
+    <row r="246" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B246" s="9"/>
+      <c r="C246" s="9"/>
+      <c r="D246" s="9"/>
+    </row>
+    <row r="247" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B247" s="9"/>
+      <c r="C247" s="9"/>
+      <c r="D247" s="9"/>
+    </row>
+    <row r="248" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B248" s="9"/>
+      <c r="C248" s="9"/>
+      <c r="D248" s="9"/>
+    </row>
+    <row r="249" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B249" s="9"/>
+      <c r="C249" s="9"/>
+      <c r="D249" s="9"/>
+    </row>
+    <row r="250" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B250" s="9"/>
+      <c r="C250" s="9"/>
+      <c r="D250" s="9"/>
+    </row>
+    <row r="251" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B251" s="9"/>
+      <c r="C251" s="9"/>
+      <c r="D251" s="9"/>
+    </row>
+    <row r="252" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B252" s="9"/>
+      <c r="C252" s="9"/>
+      <c r="D252" s="9"/>
+    </row>
+    <row r="253" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B253" s="9"/>
+      <c r="C253" s="9"/>
+      <c r="D253" s="9"/>
+    </row>
+    <row r="254" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B254" s="9"/>
+      <c r="C254" s="9"/>
+      <c r="D254" s="9"/>
+    </row>
+    <row r="255" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B255" s="9"/>
+      <c r="C255" s="9"/>
+      <c r="D255" s="9"/>
+    </row>
+    <row r="256" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B256" s="9"/>
+      <c r="C256" s="9"/>
+      <c r="D256" s="9"/>
+    </row>
+    <row r="257" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B257" s="9"/>
+      <c r="C257" s="9"/>
+      <c r="D257" s="9"/>
+    </row>
+    <row r="258" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B258" s="9"/>
+      <c r="C258" s="9"/>
+      <c r="D258" s="9"/>
+    </row>
+    <row r="259" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B259" s="9"/>
+      <c r="C259" s="9"/>
+      <c r="D259" s="9"/>
+    </row>
+    <row r="260" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B260" s="9"/>
+      <c r="C260" s="9"/>
+      <c r="D260" s="9"/>
+    </row>
+    <row r="261" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B261" s="9"/>
+      <c r="C261" s="9"/>
+      <c r="D261" s="9"/>
+    </row>
+    <row r="262" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B262" s="9"/>
+      <c r="C262" s="9"/>
+      <c r="D262" s="9"/>
+    </row>
+    <row r="263" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B263" s="9"/>
+      <c r="C263" s="9"/>
+      <c r="D263" s="9"/>
+    </row>
+    <row r="264" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B264" s="9"/>
+      <c r="C264" s="9"/>
+      <c r="D264" s="9"/>
+    </row>
+    <row r="265" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B265" s="9"/>
+      <c r="C265" s="9"/>
+      <c r="D265" s="9"/>
+    </row>
+    <row r="266" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B266" s="9"/>
+      <c r="C266" s="9"/>
+      <c r="D266" s="9"/>
+    </row>
+    <row r="267" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B267" s="9"/>
+      <c r="C267" s="9"/>
+      <c r="D267" s="9"/>
+    </row>
+    <row r="268" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B268" s="9"/>
+      <c r="C268" s="9"/>
+      <c r="D268" s="9"/>
+    </row>
+    <row r="269" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B269" s="9"/>
+      <c r="C269" s="9"/>
+      <c r="D269" s="9"/>
+    </row>
+    <row r="270" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B270" s="9"/>
+      <c r="C270" s="9"/>
+      <c r="D270" s="9"/>
+    </row>
+    <row r="271" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B271" s="9"/>
+      <c r="C271" s="9"/>
+      <c r="D271" s="9"/>
+    </row>
+    <row r="272" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B272" s="9"/>
+      <c r="C272" s="9"/>
+      <c r="D272" s="9"/>
+    </row>
+    <row r="273" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B273" s="9"/>
+      <c r="C273" s="9"/>
+      <c r="D273" s="9"/>
+    </row>
+    <row r="274" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B274" s="9"/>
+      <c r="C274" s="9"/>
+      <c r="D274" s="9"/>
+    </row>
+    <row r="275" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B275" s="9"/>
+      <c r="C275" s="9"/>
+      <c r="D275" s="9"/>
+    </row>
+    <row r="276" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B276" s="9"/>
+      <c r="C276" s="9"/>
+      <c r="D276" s="9"/>
+    </row>
+    <row r="277" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B277" s="9"/>
+      <c r="C277" s="9"/>
+      <c r="D277" s="9"/>
+    </row>
+    <row r="278" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B278" s="9"/>
+      <c r="C278" s="9"/>
+      <c r="D278" s="9"/>
+    </row>
+    <row r="279" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B279" s="9"/>
+      <c r="C279" s="9"/>
+      <c r="D279" s="9"/>
+    </row>
+    <row r="280" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B280" s="9"/>
+      <c r="C280" s="9"/>
+      <c r="D280" s="9"/>
+    </row>
+    <row r="281" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B281" s="9"/>
+      <c r="C281" s="9"/>
+      <c r="D281" s="9"/>
+    </row>
+    <row r="282" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B282" s="9"/>
+      <c r="C282" s="9"/>
+      <c r="D282" s="9"/>
+    </row>
+    <row r="283" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B283" s="9"/>
+      <c r="C283" s="9"/>
+      <c r="D283" s="9"/>
+    </row>
+    <row r="284" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B284" s="9"/>
+      <c r="C284" s="9"/>
+      <c r="D284" s="9"/>
+    </row>
+    <row r="285" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B285" s="9"/>
+      <c r="C285" s="9"/>
+      <c r="D285" s="9"/>
+    </row>
+    <row r="286" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B286" s="9"/>
+      <c r="C286" s="9"/>
+      <c r="D286" s="9"/>
+    </row>
+    <row r="287" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B287" s="9"/>
+      <c r="C287" s="9"/>
+      <c r="D287" s="9"/>
+    </row>
+    <row r="288" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B288" s="9"/>
+      <c r="C288" s="9"/>
+      <c r="D288" s="9"/>
+    </row>
+    <row r="289" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B289" s="9"/>
+      <c r="C289" s="9"/>
+      <c r="D289" s="9"/>
+    </row>
+    <row r="290" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B290" s="9"/>
+      <c r="C290" s="9"/>
+      <c r="D290" s="9"/>
+    </row>
+    <row r="291" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B291" s="9"/>
+      <c r="C291" s="9"/>
+      <c r="D291" s="9"/>
+    </row>
+    <row r="292" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B292" s="9"/>
+      <c r="C292" s="9"/>
+      <c r="D292" s="9"/>
+    </row>
+    <row r="293" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B293" s="9"/>
+      <c r="C293" s="9"/>
+      <c r="D293" s="9"/>
+    </row>
+    <row r="294" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B294" s="9"/>
+      <c r="C294" s="9"/>
+      <c r="D294" s="9"/>
+    </row>
+    <row r="295" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B295" s="9"/>
+      <c r="C295" s="9"/>
+      <c r="D295" s="9"/>
+    </row>
+    <row r="296" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B296" s="9"/>
+      <c r="C296" s="9"/>
+      <c r="D296" s="9"/>
+    </row>
+    <row r="297" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B297" s="9"/>
+      <c r="C297" s="9"/>
+      <c r="D297" s="9"/>
+    </row>
+    <row r="298" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B298" s="9"/>
+      <c r="C298" s="9"/>
+      <c r="D298" s="9"/>
+    </row>
+    <row r="299" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B299" s="9"/>
+      <c r="C299" s="9"/>
+      <c r="D299" s="9"/>
+    </row>
+    <row r="300" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B300" s="9"/>
+      <c r="C300" s="9"/>
+      <c r="D300" s="9"/>
+    </row>
+    <row r="301" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B301" s="9"/>
+      <c r="C301" s="9"/>
+      <c r="D301" s="9"/>
+    </row>
+    <row r="302" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B302" s="9"/>
+      <c r="C302" s="9"/>
+      <c r="D302" s="9"/>
+    </row>
+    <row r="303" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B303" s="9"/>
+      <c r="C303" s="9"/>
+      <c r="D303" s="9"/>
+    </row>
+    <row r="304" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B304" s="9"/>
+      <c r="C304" s="9"/>
+      <c r="D304" s="9"/>
+    </row>
+    <row r="305" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B305" s="9"/>
+      <c r="C305" s="9"/>
+      <c r="D305" s="9"/>
+    </row>
+    <row r="306" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B306" s="9"/>
+      <c r="C306" s="9"/>
+      <c r="D306" s="9"/>
+    </row>
+    <row r="307" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B307" s="9"/>
+      <c r="C307" s="9"/>
+      <c r="D307" s="9"/>
+    </row>
+    <row r="308" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B308" s="9"/>
+      <c r="C308" s="9"/>
+      <c r="D308" s="9"/>
+    </row>
+    <row r="309" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B309" s="9"/>
+      <c r="C309" s="9"/>
+      <c r="D309" s="9"/>
+    </row>
+    <row r="310" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B310" s="9"/>
+      <c r="C310" s="9"/>
+      <c r="D310" s="9"/>
+    </row>
+    <row r="311" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B311" s="9"/>
+      <c r="C311" s="9"/>
+      <c r="D311" s="9"/>
+    </row>
+    <row r="312" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B312" s="9"/>
+      <c r="C312" s="9"/>
+      <c r="D312" s="9"/>
+    </row>
+    <row r="313" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B313" s="9"/>
+      <c r="C313" s="9"/>
+      <c r="D313" s="9"/>
+    </row>
+    <row r="314" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B314" s="9"/>
+      <c r="C314" s="9"/>
+      <c r="D314" s="9"/>
+    </row>
+    <row r="315" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B315" s="9"/>
+      <c r="C315" s="9"/>
+      <c r="D315" s="9"/>
+    </row>
+    <row r="316" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B316" s="9"/>
+      <c r="C316" s="9"/>
+      <c r="D316" s="9"/>
+    </row>
+    <row r="317" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B317" s="9"/>
+      <c r="C317" s="9"/>
+      <c r="D317" s="9"/>
+    </row>
+    <row r="318" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B318" s="9"/>
+      <c r="C318" s="9"/>
+      <c r="D318" s="9"/>
+    </row>
+    <row r="319" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B319" s="9"/>
+      <c r="C319" s="9"/>
+      <c r="D319" s="9"/>
+    </row>
+    <row r="320" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B320" s="9"/>
+      <c r="C320" s="9"/>
+      <c r="D320" s="9"/>
+    </row>
+    <row r="321" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B321" s="9"/>
+      <c r="C321" s="9"/>
+      <c r="D321" s="9"/>
+    </row>
+    <row r="322" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B322" s="9"/>
+      <c r="C322" s="9"/>
+      <c r="D322" s="9"/>
+    </row>
+    <row r="323" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B323" s="9"/>
+      <c r="C323" s="9"/>
+      <c r="D323" s="9"/>
+    </row>
+    <row r="324" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B324" s="9"/>
+      <c r="C324" s="9"/>
+      <c r="D324" s="9"/>
+    </row>
+    <row r="325" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B325" s="9"/>
+      <c r="C325" s="9"/>
+      <c r="D325" s="9"/>
+    </row>
+    <row r="326" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B326" s="9"/>
+      <c r="C326" s="9"/>
+      <c r="D326" s="9"/>
+    </row>
+    <row r="327" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B327" s="9"/>
+      <c r="C327" s="9"/>
+      <c r="D327" s="9"/>
+    </row>
+    <row r="328" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B328" s="9"/>
+      <c r="C328" s="9"/>
+      <c r="D328" s="9"/>
+    </row>
+    <row r="329" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B329" s="9"/>
+      <c r="C329" s="9"/>
+      <c r="D329" s="9"/>
+    </row>
+    <row r="330" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B330" s="9"/>
+      <c r="C330" s="9"/>
+      <c r="D330" s="9"/>
+    </row>
+    <row r="331" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B331" s="9"/>
+      <c r="C331" s="9"/>
+      <c r="D331" s="9"/>
+    </row>
+    <row r="332" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B332" s="9"/>
+      <c r="C332" s="9"/>
+      <c r="D332" s="9"/>
+    </row>
+    <row r="333" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B333" s="9"/>
+      <c r="C333" s="9"/>
+      <c r="D333" s="9"/>
+    </row>
+    <row r="334" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B334" s="9"/>
+      <c r="C334" s="9"/>
+      <c r="D334" s="9"/>
+    </row>
+    <row r="335" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B335" s="9"/>
+      <c r="C335" s="9"/>
+      <c r="D335" s="9"/>
+    </row>
+    <row r="336" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B336" s="9"/>
+      <c r="C336" s="9"/>
+      <c r="D336" s="9"/>
+    </row>
+    <row r="337" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B337" s="9"/>
+      <c r="C337" s="9"/>
+      <c r="D337" s="9"/>
+    </row>
+    <row r="338" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B338" s="9"/>
+      <c r="C338" s="9"/>
+      <c r="D338" s="9"/>
+    </row>
+    <row r="339" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B339" s="9"/>
+      <c r="C339" s="9"/>
+      <c r="D339" s="9"/>
+    </row>
+    <row r="340" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B340" s="9"/>
+      <c r="C340" s="9"/>
+      <c r="D340" s="9"/>
+    </row>
+    <row r="341" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B341" s="9"/>
+      <c r="C341" s="9"/>
+      <c r="D341" s="9"/>
+    </row>
+    <row r="342" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B342" s="9"/>
+      <c r="C342" s="9"/>
+      <c r="D342" s="9"/>
+    </row>
+    <row r="343" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B343" s="9"/>
+      <c r="C343" s="9"/>
+      <c r="D343" s="9"/>
+    </row>
+    <row r="344" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B344" s="9"/>
+      <c r="C344" s="9"/>
+      <c r="D344" s="9"/>
+    </row>
+    <row r="345" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B345" s="9"/>
+      <c r="C345" s="9"/>
+      <c r="D345" s="9"/>
+    </row>
+    <row r="346" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B346" s="9"/>
+      <c r="C346" s="9"/>
+      <c r="D346" s="9"/>
+    </row>
+    <row r="347" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B347" s="9"/>
+      <c r="C347" s="9"/>
+      <c r="D347" s="9"/>
+    </row>
+    <row r="348" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B348" s="9"/>
+      <c r="C348" s="9"/>
+      <c r="D348" s="9"/>
+    </row>
+    <row r="349" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B349" s="9"/>
+      <c r="C349" s="9"/>
+      <c r="D349" s="9"/>
+    </row>
+    <row r="350" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B350" s="9"/>
+      <c r="C350" s="9"/>
+      <c r="D350" s="9"/>
+    </row>
+    <row r="351" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B351" s="9"/>
+      <c r="C351" s="9"/>
+      <c r="D351" s="9"/>
+    </row>
+    <row r="352" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B352" s="9"/>
+      <c r="C352" s="9"/>
+      <c r="D352" s="9"/>
+    </row>
+    <row r="353" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B353" s="9"/>
+      <c r="C353" s="9"/>
+      <c r="D353" s="9"/>
+    </row>
+    <row r="354" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B354" s="9"/>
+      <c r="C354" s="9"/>
+      <c r="D354" s="9"/>
+    </row>
+    <row r="355" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B355" s="9"/>
+      <c r="C355" s="9"/>
+      <c r="D355" s="9"/>
+    </row>
+    <row r="356" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B356" s="9"/>
+      <c r="C356" s="9"/>
+      <c r="D356" s="9"/>
+    </row>
+    <row r="357" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B357" s="9"/>
+      <c r="C357" s="9"/>
+      <c r="D357" s="9"/>
+    </row>
+    <row r="358" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B358" s="9"/>
+      <c r="C358" s="9"/>
+      <c r="D358" s="9"/>
+    </row>
+    <row r="359" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B359" s="9"/>
+      <c r="C359" s="9"/>
+      <c r="D359" s="9"/>
+    </row>
+    <row r="360" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B360" s="9"/>
+      <c r="C360" s="9"/>
+      <c r="D360" s="9"/>
+    </row>
+    <row r="361" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B361" s="9"/>
+      <c r="C361" s="9"/>
+      <c r="D361" s="9"/>
+    </row>
+    <row r="362" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B362" s="9"/>
+      <c r="C362" s="9"/>
+      <c r="D362" s="9"/>
+    </row>
+    <row r="363" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B363" s="9"/>
+      <c r="C363" s="9"/>
+      <c r="D363" s="9"/>
+    </row>
+    <row r="364" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B364" s="9"/>
+      <c r="C364" s="9"/>
+      <c r="D364" s="9"/>
+    </row>
+    <row r="365" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B365" s="9"/>
+      <c r="C365" s="9"/>
+      <c r="D365" s="9"/>
+    </row>
+    <row r="366" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B366" s="9"/>
+      <c r="C366" s="9"/>
+      <c r="D366" s="9"/>
+    </row>
+    <row r="367" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B367" s="9"/>
+      <c r="C367" s="9"/>
+      <c r="D367" s="9"/>
+    </row>
+    <row r="368" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B368" s="9"/>
+      <c r="C368" s="9"/>
+      <c r="D368" s="9"/>
+    </row>
+    <row r="369" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B369" s="9"/>
+      <c r="C369" s="9"/>
+      <c r="D369" s="9"/>
+    </row>
+    <row r="370" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B370" s="9"/>
+      <c r="C370" s="9"/>
+      <c r="D370" s="9"/>
+    </row>
+    <row r="371" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B371" s="9"/>
+      <c r="C371" s="9"/>
+      <c r="D371" s="9"/>
+    </row>
+    <row r="372" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B372" s="9"/>
+      <c r="C372" s="9"/>
+      <c r="D372" s="9"/>
+    </row>
+    <row r="373" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B373" s="9"/>
+      <c r="C373" s="9"/>
+      <c r="D373" s="9"/>
+    </row>
+    <row r="374" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B374" s="9"/>
+      <c r="C374" s="9"/>
+      <c r="D374" s="9"/>
+    </row>
+    <row r="375" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B375" s="9"/>
+      <c r="C375" s="9"/>
+      <c r="D375" s="9"/>
+    </row>
+    <row r="376" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B376" s="9"/>
+      <c r="C376" s="9"/>
+      <c r="D376" s="9"/>
+    </row>
+    <row r="377" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B377" s="9"/>
+      <c r="C377" s="9"/>
+      <c r="D377" s="9"/>
+    </row>
+    <row r="378" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B378" s="9"/>
+      <c r="C378" s="9"/>
+      <c r="D378" s="9"/>
+    </row>
+    <row r="379" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B379" s="9"/>
+      <c r="C379" s="9"/>
+      <c r="D379" s="9"/>
+    </row>
+    <row r="380" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B380" s="9"/>
+      <c r="C380" s="9"/>
+      <c r="D380" s="9"/>
+    </row>
+    <row r="381" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B381" s="9"/>
+      <c r="C381" s="9"/>
+      <c r="D381" s="9"/>
+    </row>
+    <row r="382" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B382" s="9"/>
+      <c r="C382" s="9"/>
+      <c r="D382" s="9"/>
+    </row>
+    <row r="383" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B383" s="9"/>
+      <c r="C383" s="9"/>
+      <c r="D383" s="9"/>
+    </row>
+    <row r="384" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B384" s="9"/>
+      <c r="C384" s="9"/>
+      <c r="D384" s="9"/>
+    </row>
+    <row r="385" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B385" s="9"/>
+      <c r="C385" s="9"/>
+      <c r="D385" s="9"/>
+    </row>
+    <row r="386" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B386" s="9"/>
+      <c r="C386" s="9"/>
+      <c r="D386" s="9"/>
+    </row>
+    <row r="387" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B387" s="9"/>
+      <c r="C387" s="9"/>
+      <c r="D387" s="9"/>
+    </row>
+    <row r="388" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B388" s="9"/>
+      <c r="C388" s="9"/>
+      <c r="D388" s="9"/>
+    </row>
+    <row r="389" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B389" s="9"/>
+      <c r="C389" s="9"/>
+      <c r="D389" s="9"/>
+    </row>
+    <row r="390" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B390" s="9"/>
+      <c r="C390" s="9"/>
+      <c r="D390" s="9"/>
+    </row>
+    <row r="391" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B391" s="9"/>
+      <c r="C391" s="9"/>
+      <c r="D391" s="9"/>
+    </row>
+    <row r="392" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B392" s="9"/>
+      <c r="C392" s="9"/>
+      <c r="D392" s="9"/>
+    </row>
+    <row r="393" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B393" s="9"/>
+      <c r="C393" s="9"/>
+      <c r="D393" s="9"/>
+    </row>
+    <row r="394" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B394" s="9"/>
+      <c r="C394" s="9"/>
+      <c r="D394" s="9"/>
+    </row>
+    <row r="395" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B395" s="9"/>
+      <c r="C395" s="9"/>
+      <c r="D395" s="9"/>
+    </row>
+    <row r="396" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B396" s="9"/>
+      <c r="C396" s="9"/>
+      <c r="D396" s="9"/>
+    </row>
+    <row r="397" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B397" s="9"/>
+      <c r="C397" s="9"/>
+      <c r="D397" s="9"/>
+    </row>
+    <row r="398" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B398" s="9"/>
+      <c r="C398" s="9"/>
+      <c r="D398" s="9"/>
+    </row>
+    <row r="399" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B399" s="9"/>
+      <c r="C399" s="9"/>
+      <c r="D399" s="9"/>
+    </row>
+    <row r="400" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B400" s="9"/>
+      <c r="C400" s="9"/>
+      <c r="D400" s="9"/>
+    </row>
+    <row r="401" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B401" s="9"/>
+      <c r="C401" s="9"/>
+      <c r="D401" s="9"/>
+    </row>
+    <row r="402" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B402" s="9"/>
+      <c r="C402" s="9"/>
+      <c r="D402" s="9"/>
+    </row>
+    <row r="403" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B403" s="9"/>
+      <c r="C403" s="9"/>
+      <c r="D403" s="9"/>
+    </row>
+    <row r="404" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B404" s="9"/>
+      <c r="C404" s="9"/>
+      <c r="D404" s="9"/>
+    </row>
+    <row r="405" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B405" s="9"/>
+      <c r="C405" s="9"/>
+      <c r="D405" s="9"/>
+    </row>
+    <row r="406" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B406" s="9"/>
+      <c r="C406" s="9"/>
+      <c r="D406" s="9"/>
+    </row>
+    <row r="407" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B407" s="9"/>
+      <c r="C407" s="9"/>
+      <c r="D407" s="9"/>
+    </row>
+    <row r="408" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B408" s="9"/>
+      <c r="C408" s="9"/>
+      <c r="D408" s="9"/>
+    </row>
+    <row r="409" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B409" s="9"/>
+      <c r="C409" s="9"/>
+      <c r="D409" s="9"/>
+    </row>
+    <row r="410" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B410" s="9"/>
+      <c r="C410" s="9"/>
+      <c r="D410" s="9"/>
+    </row>
+    <row r="411" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B411" s="9"/>
+      <c r="C411" s="9"/>
+      <c r="D411" s="9"/>
+    </row>
+    <row r="412" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B412" s="9"/>
+      <c r="C412" s="9"/>
+      <c r="D412" s="9"/>
+    </row>
+    <row r="413" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B413" s="9"/>
+      <c r="C413" s="9"/>
+      <c r="D413" s="9"/>
+    </row>
+    <row r="414" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B414" s="9"/>
+      <c r="C414" s="9"/>
+      <c r="D414" s="9"/>
+    </row>
+    <row r="415" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B415" s="9"/>
+      <c r="C415" s="9"/>
+      <c r="D415" s="9"/>
+    </row>
+    <row r="416" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B416" s="9"/>
+      <c r="C416" s="9"/>
+      <c r="D416" s="9"/>
+    </row>
+    <row r="417" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B417" s="9"/>
+      <c r="C417" s="9"/>
+      <c r="D417" s="9"/>
+    </row>
+    <row r="418" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B418" s="9"/>
+      <c r="C418" s="9"/>
+      <c r="D418" s="9"/>
+    </row>
+    <row r="419" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B419" s="9"/>
+      <c r="C419" s="9"/>
+      <c r="D419" s="9"/>
+    </row>
+    <row r="420" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B420" s="9"/>
+      <c r="C420" s="9"/>
+      <c r="D420" s="9"/>
+    </row>
+    <row r="421" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B421" s="9"/>
+      <c r="C421" s="9"/>
+      <c r="D421" s="9"/>
+    </row>
+    <row r="422" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B422" s="9"/>
+      <c r="C422" s="9"/>
+      <c r="D422" s="9"/>
+    </row>
+    <row r="423" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B423" s="9"/>
+      <c r="C423" s="9"/>
+      <c r="D423" s="9"/>
+    </row>
+    <row r="424" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B424" s="9"/>
+      <c r="C424" s="9"/>
+      <c r="D424" s="9"/>
+    </row>
+    <row r="425" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B425" s="9"/>
+      <c r="C425" s="9"/>
+      <c r="D425" s="9"/>
+    </row>
+    <row r="426" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B426" s="9"/>
+      <c r="C426" s="9"/>
+      <c r="D426" s="9"/>
+    </row>
+    <row r="427" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B427" s="9"/>
+      <c r="C427" s="9"/>
+      <c r="D427" s="9"/>
+    </row>
+    <row r="428" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B428" s="9"/>
+      <c r="C428" s="9"/>
+      <c r="D428" s="9"/>
+    </row>
+    <row r="429" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B429" s="9"/>
+      <c r="C429" s="9"/>
+      <c r="D429" s="9"/>
+    </row>
+    <row r="430" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B430" s="9"/>
+      <c r="C430" s="9"/>
+    </row>
+    <row r="431" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B431" s="9"/>
+      <c r="C431" s="9"/>
+    </row>
+    <row r="432" spans="2:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="B432" s="9"/>
+      <c r="C432" s="9"/>
+    </row>
+    <row r="433" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B433" s="9"/>
+      <c r="C433" s="9"/>
+    </row>
+    <row r="434" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B434" s="9"/>
+      <c r="C434" s="9"/>
+    </row>
+    <row r="435" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B435" s="9"/>
+      <c r="C435" s="9"/>
+    </row>
+    <row r="436" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B436" s="9"/>
+      <c r="C436" s="9"/>
+    </row>
+    <row r="437" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B437" s="9"/>
+      <c r="C437" s="9"/>
+    </row>
+    <row r="438" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B438" s="9"/>
+      <c r="C438" s="9"/>
+    </row>
+    <row r="439" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B439" s="9"/>
+      <c r="C439" s="9"/>
+    </row>
+    <row r="440" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B440" s="9"/>
+      <c r="C440" s="9"/>
+    </row>
+    <row r="441" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B441" s="9"/>
+      <c r="C441" s="9"/>
+    </row>
+    <row r="442" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B442" s="9"/>
+      <c r="C442" s="9"/>
+    </row>
+    <row r="443" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B443" s="9"/>
+      <c r="C443" s="9"/>
+    </row>
+    <row r="444" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B444" s="9"/>
+      <c r="C444" s="9"/>
+    </row>
+    <row r="445" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B445" s="9"/>
+      <c r="C445" s="9"/>
+    </row>
+    <row r="446" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B446" s="9"/>
+      <c r="C446" s="9"/>
+    </row>
+    <row r="447" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B447" s="9"/>
+      <c r="C447" s="9"/>
+    </row>
+    <row r="448" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B448" s="9"/>
+      <c r="C448" s="9"/>
+    </row>
+    <row r="449" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B449" s="9"/>
+      <c r="C449" s="9"/>
+    </row>
+    <row r="450" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B450" s="9"/>
+      <c r="C450" s="9"/>
+    </row>
+    <row r="451" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B451" s="9"/>
+      <c r="C451" s="9"/>
+    </row>
+    <row r="452" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B452" s="9"/>
+      <c r="C452" s="9"/>
+    </row>
+    <row r="453" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B453" s="9"/>
+      <c r="C453" s="9"/>
+    </row>
+    <row r="454" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B454" s="9"/>
+      <c r="C454" s="9"/>
+    </row>
+    <row r="455" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B455" s="9"/>
+      <c r="C455" s="9"/>
+    </row>
+    <row r="456" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B456" s="9"/>
+      <c r="C456" s="9"/>
+    </row>
+    <row r="457" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B457" s="9"/>
+      <c r="C457" s="9"/>
+    </row>
+    <row r="458" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B458" s="9"/>
+      <c r="C458" s="9"/>
+    </row>
+    <row r="459" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B459" s="9"/>
+      <c r="C459" s="9"/>
+    </row>
+    <row r="460" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B460" s="9"/>
+      <c r="C460" s="9"/>
+    </row>
+    <row r="461" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B461" s="9"/>
+      <c r="C461" s="9"/>
+    </row>
+    <row r="462" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B462" s="9"/>
+      <c r="C462" s="9"/>
+    </row>
+    <row r="463" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B463" s="9"/>
+      <c r="C463" s="9"/>
+    </row>
+    <row r="464" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B464" s="9"/>
+      <c r="C464" s="9"/>
+    </row>
+    <row r="465" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B465" s="9"/>
+      <c r="C465" s="9"/>
+    </row>
+    <row r="466" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B466" s="9"/>
+      <c r="C466" s="9"/>
+    </row>
+    <row r="467" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B467" s="9"/>
+      <c r="C467" s="9"/>
+    </row>
+    <row r="468" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B468" s="9"/>
+      <c r="C468" s="9"/>
+    </row>
+    <row r="469" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B469" s="9"/>
+      <c r="C469" s="9"/>
+    </row>
+    <row r="470" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B470" s="9"/>
+      <c r="C470" s="9"/>
+    </row>
+    <row r="471" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B471" s="9"/>
+      <c r="C471" s="9"/>
+    </row>
+    <row r="472" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B472" s="9"/>
+      <c r="C472" s="9"/>
+    </row>
+    <row r="473" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B473" s="9"/>
+      <c r="C473" s="9"/>
+    </row>
+    <row r="474" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B474" s="9"/>
+      <c r="C474" s="9"/>
+    </row>
+    <row r="475" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B475" s="9"/>
+      <c r="C475" s="9"/>
+    </row>
+    <row r="476" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B476" s="9"/>
+      <c r="C476" s="9"/>
+    </row>
+    <row r="477" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B477" s="9"/>
+      <c r="C477" s="9"/>
+    </row>
+    <row r="478" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B478" s="9"/>
+      <c r="C478" s="9"/>
+    </row>
+    <row r="479" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B479" s="9"/>
+      <c r="C479" s="9"/>
+    </row>
+    <row r="480" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B480" s="9"/>
+      <c r="C480" s="9"/>
+    </row>
+    <row r="481" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B481" s="9"/>
+      <c r="C481" s="9"/>
+    </row>
+    <row r="482" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B482" s="9"/>
+      <c r="C482" s="9"/>
+    </row>
+    <row r="483" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B483" s="9"/>
+      <c r="C483" s="9"/>
+    </row>
+    <row r="484" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B484" s="9"/>
+      <c r="C484" s="9"/>
+    </row>
+    <row r="485" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B485" s="9"/>
+      <c r="C485" s="9"/>
+    </row>
+    <row r="486" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B486" s="9"/>
+      <c r="C486" s="9"/>
+    </row>
+    <row r="487" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B487" s="9"/>
+      <c r="C487" s="9"/>
+    </row>
+    <row r="488" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B488" s="9"/>
+      <c r="C488" s="9"/>
+    </row>
+    <row r="489" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B489" s="9"/>
+      <c r="C489" s="9"/>
+    </row>
+    <row r="490" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B490" s="9"/>
+      <c r="C490" s="9"/>
+    </row>
+    <row r="491" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B491" s="9"/>
+      <c r="C491" s="9"/>
+    </row>
+    <row r="492" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B492" s="9"/>
+      <c r="C492" s="9"/>
+    </row>
+    <row r="493" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B493" s="9"/>
+      <c r="C493" s="9"/>
+    </row>
+    <row r="494" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B494" s="9"/>
+      <c r="C494" s="9"/>
+    </row>
+    <row r="495" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B495" s="9"/>
+      <c r="C495" s="9"/>
+    </row>
+    <row r="496" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B496" s="9"/>
+      <c r="C496" s="9"/>
+    </row>
+    <row r="497" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B497" s="9"/>
+      <c r="C497" s="9"/>
+    </row>
+    <row r="498" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B498" s="9"/>
+      <c r="C498" s="9"/>
+    </row>
+    <row r="499" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B499" s="9"/>
+      <c r="C499" s="9"/>
+    </row>
+    <row r="500" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B500" s="9"/>
+      <c r="C500" s="9"/>
+    </row>
+    <row r="501" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B501" s="9"/>
+      <c r="C501" s="9"/>
+    </row>
+    <row r="502" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B502" s="9"/>
+      <c r="C502" s="9"/>
+    </row>
+    <row r="503" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B503" s="9"/>
+      <c r="C503" s="9"/>
+    </row>
+    <row r="504" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B504" s="9"/>
+      <c r="C504" s="9"/>
+    </row>
+    <row r="505" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B505" s="9"/>
+      <c r="C505" s="9"/>
+    </row>
+    <row r="506" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B506" s="9"/>
+      <c r="C506" s="9"/>
+    </row>
+    <row r="507" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B507" s="9"/>
+      <c r="C507" s="9"/>
+    </row>
+    <row r="508" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B508" s="9"/>
+      <c r="C508" s="9"/>
+    </row>
+    <row r="509" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B509" s="9"/>
+      <c r="C509" s="9"/>
+    </row>
+    <row r="510" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B510" s="9"/>
+      <c r="C510" s="9"/>
+    </row>
+    <row r="511" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B511" s="9"/>
+      <c r="C511" s="9"/>
+    </row>
+    <row r="512" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B512" s="9"/>
+      <c r="C512" s="9"/>
+    </row>
+    <row r="513" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B513" s="9"/>
+      <c r="C513" s="9"/>
+    </row>
+    <row r="514" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B514" s="9"/>
+      <c r="C514" s="9"/>
+    </row>
+    <row r="515" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B515" s="9"/>
+      <c r="C515" s="9"/>
+    </row>
+    <row r="516" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B516" s="9"/>
+      <c r="C516" s="9"/>
+    </row>
+    <row r="517" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B517" s="9"/>
+      <c r="C517" s="9"/>
+    </row>
+    <row r="518" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B518" s="9"/>
+      <c r="C518" s="9"/>
+    </row>
+    <row r="519" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B519" s="9"/>
+      <c r="C519" s="9"/>
+    </row>
+    <row r="520" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B520" s="9"/>
+      <c r="C520" s="9"/>
+    </row>
+    <row r="521" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B521" s="9"/>
+      <c r="C521" s="9"/>
+    </row>
+    <row r="522" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B522" s="9"/>
+      <c r="C522" s="9"/>
+    </row>
+    <row r="523" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B523" s="9"/>
+      <c r="C523" s="9"/>
+    </row>
+    <row r="524" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B524" s="9"/>
+      <c r="C524" s="9"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>